--- a/Bugzilla.xlsx
+++ b/Bugzilla.xlsx
@@ -105,13 +105,13 @@
     <t>tmitsue</t>
   </si>
   <si>
-    <t>['3.12.47.122', '3.18.178.215', '3.21.15.49', '3.21.72.10', '3.135.120.8', '3.235.80.92', '10.35.150.17', '10.122.72.76', '13.59.223.197', '13.71.140.166', '13.112.245.134', '13.225.99.67', '13.225.100.196', '13.226.210.49', '13.249.166.206', '17.125.250.130', '17.248.155.72', '17.248.155.136', '17.248.156.41', '17.248.157.106', '17.248.159.44', '17.248.159.204', '17.248.160.13', '17.248.160.109', '17.253.5.205', '17.253.67.203', '18.176.193.87', '18.221.80.121', '23.37.144.246', '23.41.79.113', '23.59.139.27', '23.211.136.32', '23.219.214.6', '52.15.63.24', '52.27.23.164', '52.98.92.2', '52.219.1.78', '54.95.220.231', '62.109.240.53', '62.109.241.182', '62.109.242.247', '64.102.6.148', '69.26.161.64', '69.26.161.128', '69.26.176.79', '69.26.176.239', '69.26.190.29', '69.26.190.125', '104.16.148.64', '104.98.43.165', '104.116.25.65', '142.250.66.170', '151.101.64.134', '151.101.128.134', '152.199.39.108', '155.190.254.207', '170.133.144.137', '170.133.144.233', '170.133.146.107', '170.133.147.236', '170.133.148.45', '170.133.150.143', '170.133.150.239', '170.133.151.48', '170.133.160.217', '170.133.162.91', '170.133.162.251', '170.133.163.220', '170.133.176.41', '172.16.0.48', '172.16.17.1', '172.16.254.14', '172.16.254.110', '172.217.31.166', '172.217.167.78', '172.217.194.105', '173.39.236.38', '192.29.144.167', '192.99.19.4', '207.182.171.216', '207.182.188.169', '207.182.189.74', '207.182.189.234', '216.58.220.206', '216.151.152.13', '216.151.152.109', '216.151.152.173', '216.151.153.78', '216.151.153.142', '2404:6800:4006:0802:0000:0000:0000:2003', '3.12.192.79', '3.12.246.37', '3.12.253.108', '3.20.46.21', '3.21.148.154', '3.113.118.96', '3.114.84.93', '3.115.164.140', '3.235.73.153', '3.235.80.224', '3.235.81.193', '10.0.0.2', '10.244.2.48', '13.59.223.9', '13.59.223.105', '13.59.223.169', '13.225.89.61', '17.248.128.177', '17.248.152.41', '17.248.153.170', '17.248.154.75', '17.248.154.139', '17.248.154.235', '17.248.156.13', '17.248.157.78', '17.248.158.207', '17.248.159.16', '17.248.159.112', '17.248.159.176', '18.189.85.226', '18.230.160.68', '23.51.208.236', '23.56.20.139', '23.198.122.163', '23.200.148.27', '35.170.0.145', '40.100.54.242', '52.49.171.198', '52.76.219.219', '61.114.186.157', '62.109.211.60', '62.109.240.25', '62.109.241.154', '69.26.161.36', '69.26.161.196', '69.26.190.97', '69.26.190.161', '74.125.68.105', '85.236.43.108', '99.84.238.21', '104.20.184.68', '111.90.150.227', '124.147.8.233', '142.250.66.238', '147.154.105.58', '150.253.217.170', '151.101.230.208', '155.190.254.19', '155.190.255.148', '162.247.242.21', '167.71.197.125', '170.133.145.110', '170.133.148.177', '170.133.149.146', '170.133.151.20', '170.133.151.116', '170.133.151.180', '170.133.160.125', '170.133.162.63', '170.133.163.192', '170.133.177.142', '172.16.50.102', '172.18.11.61', '172.217.25.68', '172.217.25.228', '172.217.26.37', '172.217.31.138', '172.217.31.234', '172.217.163.238', '173.39.236.106', '176.32.119.127', '184.28.158.146', '185.199.111.153', '207.182.170.59', '207.182.171.188', '207.182.189.206', '216.58.203.225', '216.151.152.241', '2404:6800:4005:0807:0000:0000:0000:2003', '2603:1016:0401:100d:0000:0000:0000:0002', '3.12.35.124', '3.235.73.195', '3.235.80.10', '3.235.80.106', '13.59.223.51', '13.225.89.7', '13.249.171.97', '17.248.157.24', '17.250.120.209', '17.253.83.201', '17.253.142.4', '23.76.78.187', '52.14.242.26', '52.98.94.210', '52.109.2.11', '52.114.88.28', '54.70.28.206', '62.109.240.67', '62.109.241.196', '62.109.243.70', '69.26.161.78', '69.26.161.142', '69.26.161.238', '69.26.176.253', '69.26.190.43', '99.86.211.34', '103.109.210.14', '104.26.0.240', '104.79.118.17', '143.204.77.146', '143.204.82.119', '150.253.217.52', '150.253.217.212', '151.139.128.14', '155.190.254.61', '155.190.254.221', '155.190.255.190', '157.240.8.23', '170.133.144.247', '170.133.146.121', '170.133.147.250', '170.133.149.28', '170.133.151.62', '170.133.151.222', '170.133.160.231', '170.133.161.200', '170.133.162.105', '170.133.163.234', '170.133.177.120', '170.133.177.184', '172.16.10.200', '172.16.17.111', '172.16.254.124', '172.217.24.45', '172.217.25.14', '172.217.25.110', '172.217.25.174', '172.217.194.119', '173.39.236.52', '192.29.146.215', '192.124.249.31', '192.168.50.12', '207.182.188.23', '207.182.189.88', '216.151.152.27', '216.151.152.187', '216.151.153.92', '216.151.153.156', '2404:6800:4005:080a:0000:0000:0000:200a', '3.19.1.93', '3.21.188.182', '3.133.37.143', '3.134.75.52', '3.221.64.178', '3.235.73.173', '10.122.72.68', '13.56.98.163', '13.59.223.29', '13.59.223.125', '13.59.223.189', '13.224.0.57', '13.224.2.91', '13.225.100.28', '13.225.103.31', '18.182.239.247', '18.219.39.202', '18.230.160.88', '18.232.46.100', '23.46.16.197', '23.55.47.187', '23.75.95.55', '23.78.217.142', '23.200.142.41', '23.211.136.120', '23.220.203.50', '40.97.223.114', '40.100.2.82', '40.100.146.2', '40.126.12.34', '52.23.73.146', '52.109.112.35', '52.201.3.186', '54.238.191.115', '54.248.0.170', '58.195.1.4', '62.109.240.45', '63.249.152.74', '69.26.161.56', '69.26.161.216', '69.26.190.21', '69.26.190.117', '74.125.68.189', '74.125.130.91', '99.86.212.77', '104.116.208.112', '108.174.11.85', '142.250.66.162', '150.253.217.30', '155.190.254.39', '155.190.254.199', '155.190.255.8', '155.190.255.104', '170.133.144.65', '170.133.145.194', '170.133.147.228', '170.133.150.71', '170.133.150.135', '170.133.150.231', '170.133.151.40', '170.133.151.200', '170.133.161.18', '170.133.162.147', '170.133.162.243', '170.133.163.212', '170.133.178.67', '172.16.17.153', '172.16.254.102', '172.17.1.8', '172.18.254.4', '172.217.4.67', '172.217.175.14', '172.217.175.110', '172.217.194.97', '173.194.49.8', '192.29.144.255', '202.233.84.1', '202.241.208.53', '207.182.188.161', '207.182.189.66', '207.182.189.130', '209.197.206.38', '216.58.220.198', '216.151.152.101', '216.151.152.165', '216.151.153.70', '216.151.153.134', '2404:6800:4003:0c00:0000:0000:0000:0064', '3.20.154.194', '3.21.146.89', '3.21.147.58', '3.235.73.186', '3.235.80.97', '10.122.72.81', '13.58.186.38', '13.58.233.117', '13.59.223.42', '13.224.29.35', '13.224.177.23', '13.225.89.94', '13.225.90.223', '13.225.103.44', '13.226.210.54', '13.226.234.78', '17.248.153.43', '17.248.153.203', '17.248.154.108', '17.248.154.172', '17.248.155.77', '17.248.155.141', '17.248.157.15', '17.248.157.111', '17.248.158.144', '17.248.158.240', '17.248.159.209', '17.248.160.18', '17.248.160.114', '17.250.120.200', '17.253.67.208', '18.221.22.164', '18.222.81.254', '18.230.160.5', '23.42.120.254', '23.51.41.198', '23.56.28.52', '23.56.163.59', '35.168.192.84', '35.174.84.2', '46.4.72.43', '50.112.179.110', '52.1.50.62', '52.74.118.249', '52.109.112.48', '52.111.230.4', '52.216.238.99', '54.150.174.71', '62.109.240.58', '62.109.241.123', '62.109.241.187', '66.114.165.206', '69.26.161.69', '69.26.161.133', '69.26.161.229', '69.26.176.148', '69.26.190.34', '69.171.250.13', '69.173.159.48', '74.125.23.157', '74.125.102.44', '99.86.181.91', '113.40.37.71', '114.29.210.32', '140.82.112.3', '143.204.82.14', '150.253.217.43', '150.253.217.203', '151.101.65.44', '151.101.129.44', '151.101.193.140', '153.120.128.154', '153.254.173.129', '155.190.254.52', '155.190.255.21', '155.190.255.117', '155.190.255.181', '157.240.11.17', '170.133.144.78', '170.133.145.47', '170.133.148.50', '170.133.150.148', '170.133.151.213', '170.133.160.222', '170.133.161.127', '170.133.161.191', '170.133.162.96', '170.133.176.206', '170.133.177.15', '170.133.177.175', '170.133.178.144', '170.133.178.240', '172.16.0.53', '172.16.10.191', '172.16.17.102', '172.16.254.19', '172.16.254.115', '172.217.23.131', '172.217.25.165', '173.39.236.43', '176.32.101.46', '183.79.219.124', '183.79.250.123', '185.84.60.26', '192.124.249.22', '195.20.53.157', '202.144.144.195', '207.182.188.110', '207.182.188.174', '207.182.189.143', '210.135.97.197', '210.226.37.238', '216.58.203.98', '216.58.204.131', '216.151.152.18', '216.151.152.114', '216.151.152.178', '216.151.153.83', '216.151.153.147', '2404:6800:4006:0807:0000:0000:0000:2003', '3.12.56.83', '3.18.128.181', '3.21.201.59', '3.21.225.243', '3.235.80.204', '10.71.38.141', '10.100.11.21', '13.59.223.85', '13.59.223.245', '13.224.179.4', '17.253.87.207', '18.230.160.48', '20.190.141.39', '23.34.109.6', '23.48.96.171', '23.199.240.196', '42.99.128.139', '52.45.20.31', '52.96.42.66', '52.109.124.103', '52.114.62.100', '52.194.5.187', '62.109.211.40', '62.109.242.39', '62.109.242.199', '62.138.14.70', '69.26.161.176', '69.26.190.77', '69.26.190.141', '74.125.24.105', '99.86.183.72', '104.71.50.55', '104.98.7.17', '104.116.20.76', '104.198.14.52', '104.244.42.2', '114.179.184.123', '143.204.83.26', '143.204.83.122', '147.75.95.75', '155.190.254.159', '155.190.255.64', '155.190.255.224', '170.133.145.250', '170.133.146.219', '170.133.148.93', '170.133.151.96', '170.133.160.169', '170.133.161.234', '170.133.162.43', '170.133.162.203', '170.133.177.58', '170.133.178.123', '170.133.178.187', '172.217.25.208', '172.217.174.101', '172.217.175.230', '173.39.236.86', '176.107.179.60', '182.22.24.252', '184.26.212.182', '192.168.5.1', '203.77.190.128', '207.182.171.104', '207.182.171.168', '216.151.152.61', '2404:6800:4004:0809:0000:0000:0000:200e', '2404:6800:4005:0806:0000:0000:0000:2010', '2404:6800:4005:080c:0000:0000:0000:200a', '3.114.108.27', '3.132.8.5', '3.132.123.248', '3.235.73.255', '3.235.80.134', '3.235.80.230', '3.235.81.199', '10.66.141.51', '10.244.3.23', '13.59.223.15', '13.59.223.175', '13.225.100.14', '13.225.103.17', '17.242.25.246', '17.248.128.183', '17.248.153.176', '17.248.154.81', '17.248.154.145', '17.248.154.241', '17.248.157.84', '17.248.158.213', '17.248.159.22', '17.250.120.13', '18.191.131.212', '18.218.171.193', '18.230.160.74', '18.234.4.202', '18.235.39.172', '20.190.140.160', '20.190.141.225', '23.2.36.183', '23.41.69.177', '23.210.232.107', '34.236.241.37', '52.17.192.1', '52.38.67.47', '52.119.180.143', '52.201.201.146', '54.164.251.43', '54.178.203.141', '62.109.240.31', '62.109.241.160', '69.26.161.202', '101.102.235.200', '104.71.48.207', '108.177.97.154', '120.136.14.28', '133.130.117.54', '143.204.121.186', '150.253.217.16', '150.253.217.176', '155.190.254.121', '155.190.255.90', '155.190.255.250', '170.133.144.51', '170.133.144.211', '170.133.145.20', '170.133.145.116', '170.133.145.180', '170.133.147.54', '170.133.147.214', '170.133.148.23', '170.133.150.57', '170.133.150.217', '170.133.151.26', '170.133.160.195', '170.133.161.4', '170.133.161.164', '170.133.162.69', '170.133.162.133', '170.133.162.229', '170.133.163.198', '170.133.176.19', '170.133.177.84', '170.133.177.148', '170.133.177.244', '170.133.178.53', '170.133.178.213', '172.16.10.4', '172.16.10.100', '172.16.50.108', '172.18.135.31', '172.18.201.1', '172.217.25.74', '172.217.25.138', '172.217.25.234', '172.217.194.83', '172.217.194.147', '184.28.223.89', '192.168.12.2', '202.47.25.114', '202.228.215.27', '205.185.216.42', '207.182.170.65', '207.182.188.243', '210.245.8.131', '216.58.197.225', '216.58.199.3', '216.58.199.99', '216.151.152.151', '216.151.153.56', '2404:6800:4005:0802:0000:0000:0000:200e', '2404:6800:4005:080d:0000:0000:0000:2003', '2404:6800:4006:0805:0000:0000:0000:200a', '2.20.137.31', '3.12.192.127', '3.21.71.221', '3.21.183.173', '3.21.187.241', '3.92.250.137', '3.135.100.136', '3.235.73.201', '3.235.81.145', '10.244.2.0', '13.59.223.57', '13.59.223.217', '13.225.89.13', '13.225.103.59', '13.230.90.137', '13.230.154.233', '17.253.83.207', '18.141.129.174', '23.9.179.105', '23.49.60.202', '23.53.200.242', '23.62.226.195', '35.223.187.167', '40.100.54.34', '40.100.54.194', '52.46.133.19', '52.69.198.157', '52.98.8.34', '52.114.128.10', '62.109.240.73', '64.68.104.140', '69.26.161.84', '69.26.161.148', '69.26.161.244', '69.26.176.163', '69.173.159.63', '72.163.44.25', '96.7.111.240', '103.72.162.105', '104.16.133.229', '116.203.77.254', '124.155.222.231', '143.204.82.125', '144.2.15.5', '150.253.217.58', '150.253.217.218', '155.190.254.131', '170.133.144.93', '170.133.144.253', '170.133.146.31', '170.133.146.127', '170.133.147.160', '170.133.150.99', '170.133.151.68', '170.133.151.132', '170.133.151.228', '170.133.160.77', '170.133.160.141', '170.133.161.206', '170.133.162.15', '170.133.162.111', '170.133.162.175', '170.133.176.221', '170.133.177.126', '170.133.178.95', '170.133.178.159', '172.16.50.54', '172.217.167.98', '172.217.175.42', '172.217.194.189', '173.36.90.11', '173.39.236.58', '173.194.22.105', '192.28.144.124', '192.168.1.1', '202.79.210.117', '203.104.150.1', '207.182.170.107', '207.182.171.140', '207.182.171.236', '207.182.188.29', '207.182.188.189', '210.4.194.56', '216.58.200.14', '216.58.200.110', '216.58.220.130', '216.151.152.193', '216.151.153.98', '216.151.153.162', '2404:6800:4004:080d:0000:0000:0000:200e', '2404:6800:4004:0811:0000:0000:0000:200a', '2.20.137.77', '3.12.130.143', '3.12.183.68', '3.132.86.75', '3.134.237.64', '3.136.91.108', '3.235.73.151', '3.235.73.247', '3.235.80.62', '3.235.80.222', '10.71.136.1', '10.244.1.77', '13.35.20.116', '13.59.223.7', '13.59.223.167', '13.225.103.105', '13.249.171.53', '14.0.44.208', '17.248.128.175', '17.248.153.168', '17.248.154.73', '17.248.154.137', '17.248.154.233', '17.248.156.11', '17.248.156.107', '17.248.157.76', '17.248.158.205', '17.248.159.110', '18.211.82.199', '18.230.160.66', '23.33.208.156', '23.57.112.4', '23.57.114.38', '23.66.105.20', '23.77.53.149', '52.25.39.216', '54.200.239.147', '59.106.222.101', '62.109.211.58', '62.109.240.23', '62.109.241.152', '62.109.242.57', '62.109.242.217', '64.104.124.42', '69.26.161.34', '69.26.161.194', '69.26.190.95', '72.163.129.156', '74.125.68.103', '96.16.170.144', '99.86.212.55', '104.47.43.26', '143.204.83.44', '144.2.1.5', '144.254.71.207', '150.253.217.8', '150.253.217.168', '157.240.22.25', '162.247.242.19', '170.133.145.12', '170.133.145.108', '170.133.145.172', '170.133.148.15', '170.133.149.144', '170.133.150.209', '170.133.160.27', '170.133.161.92', '170.133.161.156', '170.133.161.252', '170.133.162.221', '170.133.176.171', '170.133.177.76', '170.133.177.140', '170.133.177.236', '172.16.10.92', '172.16.50.164', '172.217.25.66', '172.217.25.226', '172.217.26.35', '172.217.161.42', '172.217.194.139', '182.161.73.212', '185.32.222.237', '207.182.189.44', '216.58.220.112', '216.151.152.79', '216.151.153.48', '2404:6800:4004:0806:0000:0000:0000:2003', '3.12.82.195', '3.12.191.80', '3.16.17.30', '3.21.195.203', '3.235.80.194', '3.235.81.163', '10.100.11.11', '10.104.16.204', '13.59.5.49', '13.59.223.75', '13.59.223.139', '13.59.223.235', '13.113.110.100', '13.225.89.31', '13.225.99.105', '13.226.111.20', '13.226.210.87', '13.226.234.15', '17.142.171.8', '17.248.153.140', '17.248.153.236', '17.248.154.205', '17.248.155.110', '17.248.155.174', '17.248.156.79', '17.248.157.48', '17.248.158.113', '17.248.158.177', '17.248.159.146', '17.248.159.242', '17.248.160.51', '17.250.120.73', '18.181.106.65', '23.37.149.65', '23.215.177.43', '23.218.96.247', '35.244.159.8', '40.100.52.18', '52.27.140.127', '52.199.246.157', '54.64.181.101', '62.109.240.91', '62.109.241.220', '69.26.161.6', '69.26.190.67', '69.26.190.131', '74.125.24.95', '74.125.68.139', '99.86.208.55', '103.230.84.239', '104.75.164.27', '142.250.66.208', '143.204.83.16', '150.253.217.76', '150.253.217.140', '150.253.217.236', '151.101.2.110', '153.149.154.120', '155.190.254.85', '155.190.254.149', '155.190.255.214', '157.7.144.96', '170.133.144.111', '170.133.145.144', '170.133.150.21', '170.133.151.86', '170.133.160.159', '170.133.161.64', '170.133.161.128', '170.133.162.33', '170.133.162.193', '170.133.163.98', '170.133.176.79', '170.133.177.48', '170.133.177.208', '170.133.178.17', '170.133.178.113', '172.99.1.132', '172.217.161.174', '172.253.118.95', '173.39.236.140', '185.199.110.154', '202.47.25.78', '207.182.171.94', '207.182.189.16', '216.151.152.51', '216.151.152.211', '216.151.153.20', '3.20.177.33', '3.136.208.76', '3.235.80.201', '3.235.81.10', '3.235.81.170', '10.71.38.138', '13.59.223.82', '13.59.223.146', '13.59.223.242', '13.110.8.104', '13.110.32.32', '13.225.89.38', '13.225.99.112', '13.225.103.84', '17.248.147.141', '17.248.153.147', '17.248.153.243', '17.248.157.55', '17.250.120.80', '17.250.121.49', '18.221.110.164', '23.2.143.101', '23.51.209.22', '31.13.82.37', '40.71.11.141', '40.100.29.226', '42.99.128.136', '52.14.194.105', '52.52.209.82', '52.55.221.91', '52.109.12.20', '52.109.124.4', '52.111.228.10', '52.114.36.39', '52.114.75.78', '52.114.159.34', '54.64.230.29', '54.148.97.196', '54.156.131.158', '54.156.223.186', '62.109.211.37', '62.109.240.98', '62.109.242.36', '64.104.44.101', '69.26.161.13', '69.26.161.109', '69.26.190.74', '69.26.190.138', '74.125.24.102', '99.86.183.69', '104.91.80.62', '119.161.5.252', '143.204.83.23', '147.75.95.72', '150.253.217.147', '150.253.217.243', '155.190.254.92', '155.190.254.156', '155.190.254.252', '170.133.144.118', '170.133.145.247', '170.133.146.56', '170.133.147.25', '170.133.147.121', '170.133.148.154', '170.133.148.250', '170.133.150.188', '170.133.151.93', '170.133.151.157', '170.133.151.253', '170.133.160.102', '170.133.160.166', '170.133.161.135', '170.133.162.40', '170.133.163.105', '170.133.177.55', '170.133.177.215', '170.133.178.184', '172.16.10.71', '172.16.10.231', '172.217.26.14', '172.217.174.98', '172.217.175.67', '172.217.175.227', '207.182.171.101', '207.182.171.165', '207.182.189.23', '216.58.196.131', '216.93.246.18', '216.151.152.58', '2404:6800:4006:0808:0000:0000:0000:200a', '2404:6800:4006:080e:0000:0000:0000:2004', '2603:1016:0401:1016:0000:0000:0000:0002', '2620:01ec:0040:0000:0000:0000:0000:0003', '3.13.98.92', '3.132.75.78', '3.136.110.205', '3.235.80.108', '3.235.81.141', '13.35.254.76', '13.59.223.53', '13.59.223.213', '13.88.28.53', '13.115.51.241', '13.225.103.55', '13.249.171.3', '17.56.48.13', '17.248.157.26', '17.253.83.203', '18.223.228.27', '23.218.96.225', '34.194.224.132', '34.200.186.152', '52.6.103.57', '52.98.92.178', '52.109.8.19', '52.109.88.35', '52.109.120.3', '52.109.124.71', '52.193.152.15', '52.196.177.5', '52.198.186.108', '54.70.185.205', '54.239.22.193', '62.109.240.69', '62.109.241.198', '66.7.198.165', '69.26.161.80', '69.26.161.144', '69.26.161.240', '72.5.72.15', '104.18.25.243', '104.19.154.83', '104.75.165.134', '104.98.35.237', '104.244.42.66', '104.244.42.130', '108.177.125.188', '112.78.219.65', '118.215.99.102', '142.250.4.188', '143.204.82.121', '150.253.217.214', '155.190.254.223', '170.133.144.89', '170.133.144.153', '170.133.145.218', '170.133.147.92', '170.133.147.156', '170.133.148.61', '170.133.148.221', '170.133.149.126', '170.133.149.190', '170.133.151.64', '170.133.151.128', '170.133.151.224', '170.133.160.233', '170.133.161.42', '170.133.161.202', '170.133.162.107', '170.133.162.171', '170.133.163.140', '170.133.177.26', '170.133.178.155', '172.16.2.2', '172.16.10.202', '172.16.17.17', '172.16.254.126', '172.16.255.255', '172.217.25.176', '172.217.194.121', '207.182.171.72', '207.182.188.25', '207.182.188.121', '207.182.189.250', '216.58.195.69', '216.58.200.10', '216.58.200.106', '216.151.152.125', '216.151.152.189', '216.151.153.158', '216.215.112.149', '2404:6800:4006:0807:0000:0000:0000:200e', '3.12.189.225', '3.20.91.55', '3.20.119.51', '3.21.18.109', '3.21.142.233', '3.21.213.80', '3.21.229.224', '3.235.73.142', '3.235.80.53', '3.235.80.213', '3.235.81.182', '13.52.146.248', '13.59.223.254', '13.225.89.50', '13.226.210.10', '13.228.35.249', '18.179.88.228', '18.189.79.209', '18.219.238.50', '18.230.160.57', '20.190.140.143', '23.40.72.4', '23.53.157.172', '23.200.230.66', '23.218.94.136', '34.195.224.108', '40.100.145.162', '40.126.12.99', '52.43.108.162', '52.74.13.196', '54.149.100.210', '54.225.228.166', '62.109.211.49', '62.109.240.14', '62.109.241.239', '62.109.242.48', '64.233.187.95', '69.26.161.121', '69.26.161.185', '69.26.190.86', '69.26.190.150', '74.125.24.18', '74.125.68.94', '104.17.74.206', '111.108.184.200', '117.18.237.29', '119.161.8.11', '124.146.215.46', '142.250.66.227', '151.101.192.223', '155.190.254.104', '155.190.254.168', '155.190.255.73', '155.190.255.137', '155.190.255.233', '170.133.144.34', '170.133.144.194', '170.133.145.3', '170.133.145.163', '170.133.146.68', '170.133.146.132', '170.133.146.228', '170.133.148.6', '170.133.148.166', '170.133.149.231', '170.133.151.9', '170.133.151.105', '170.133.151.169', '170.133.160.178', '170.133.161.243', '170.133.162.52', '170.133.163.21', '170.133.177.67', '170.133.177.131', '170.133.177.227', '172.16.50.155', '172.16.254.135', '172.217.163.227', '172.217.174.110', '173.39.100.23', '192.28.147.68', '192.29.19.195', '192.229.232.240', '207.182.188.66', '207.182.188.130', '207.182.189.35', '216.151.152.70', '216.151.152.134', '216.151.153.39', '2404:6800:4004:081d:0000:0000:0000:2003', '2404:6800:4005:0811:0000:0000:0000:200e', '2404:6800:4006:080e:0000:0000:0000:2010', '2603:1016:0000:002f:0000:0000:0000:0002', '3.15.57.195', '3.136.118.103', '3.136.138.27', '3.235.80.126', '3.235.80.190', '13.59.223.71', '13.59.223.135', '13.59.223.231', '13.225.89.123', '13.251.172.244', '17.248.128.143', '17.248.128.239', '17.248.153.232', '17.248.154.201', '17.248.155.106', '17.248.159.78', '17.248.159.238', '17.248.160.47', '18.179.171.32', '18.220.134.146', '23.51.208.42', '23.57.114.166', '23.74.15.82', '45.125.0.6', '52.15.58.21', '52.68.182.28', '52.98.74.178', '52.98.90.2', '52.114.15.7', '52.114.133.61', '52.114.159.23', '52.196.181.251', '52.217.45.158', '62.109.211.26', '62.109.240.87', '66.254.102.128', '69.26.161.98', '69.26.161.162', '69.26.190.63', '74.125.24.91', '74.125.24.155', '74.125.200.139', '104.17.135.180', '104.47.33.16', '114.29.196.15', '143.204.83.12', '150.253.217.136', '153.254.173.158', '155.190.254.145', '155.190.254.241', '155.190.255.50', '155.190.255.210', '170.133.145.76', '170.133.145.236', '170.133.148.79', '170.133.148.143', '170.133.150.177', '170.133.160.91', '170.133.162.189', '170.133.176.235', '170.133.177.44', '170.133.178.13', '170.133.178.173', '172.16.2.20', '172.16.199.121', '172.217.24.65', '172.217.24.129', '172.217.25.194', '172.217.26.3', '172.217.27.68', '172.217.161.170', '172.253.118.155', '173.36.7.6', '173.39.236.72', '184.168.221.35', '185.63.145.1', '207.182.170.121', '207.182.188.203', '216.58.220.144', '216.151.152.47', '216.151.153.112', '2404:6800:4006:0804:0000:0000:0000:2003', '3.12.12.39', '3.21.132.182', '3.235.73.165', '3.235.80.76', '3.235.80.236', '10.11.0.3', '10.31.43.154', '10.244.3.29', '13.59.223.181', '13.225.89.73', '17.248.148.81', '17.252.172.5', '17.253.23.207', '17.253.85.205', '18.189.237.38', '18.230.160.80', '20.190.141.231', '23.15.158.42', '23.32.20.175', '23.51.210.26', '23.72.223.82', '23.77.145.95', '23.211.136.112', '31.13.77.35', '42.99.128.171', '52.88.36.4', '52.94.210.44', '52.96.42.98', '52.114.32.6', '52.114.128.70', '52.183.47.176', '52.200.144.32', '54.92.141.107', '54.95.181.176', '62.109.240.37', '62.109.242.71', '62.109.242.135', '62.109.243.40', '69.26.161.48', '69.26.161.208', '74.125.203.188', '94.31.29.32', '104.16.51.111', '104.16.88.20', '104.116.35.27', '104.116.47.39', '104.244.42.194', '108.177.125.156', '124.155.222.35', '143.204.83.58', '146.112.255.101', '150.253.217.118', '155.190.254.31', '155.190.254.127', '155.190.255.96', '170.133.145.26', '170.133.145.186', '170.133.147.220', '170.133.148.125', '170.133.149.158', '170.133.151.32', '170.133.151.192', '170.133.160.201', '170.133.161.106', '170.133.162.139', '170.133.162.235', '170.133.177.154', '170.133.177.250', '170.133.178.219', '172.16.0.32', '172.16.10.10', '172.16.10.106', '172.16.50.114', '172.176.10.10', '172.217.25.144', '172.217.174.197', '172.217.194.153', '173.37.145.221', '182.22.24.124', '192.29.144.87', '192.29.145.56', '193.146.210.69', '207.182.171.200', '207.182.188.249', '207.182.189.58', '216.58.200.74', '216.151.152.93', '216.151.153.62', '216.176.100.240', '2404:6800:4006:080b:0000:0000:0000:200a', '3.18.7.212', '3.21.187.165', '3.132.54.145', '3.132.149.80', '3.135.128.216', '3.136.122.81', '3.235.80.196', '3.235.81.101', '3.235.81.165', '10.100.11.13', '10.141.44.69', '13.59.223.237', '13.249.171.27', '17.57.145.69', '17.248.128.149', '17.248.152.13', '17.248.153.142', '17.248.153.238', '17.248.154.207', '17.248.155.16', '17.248.155.112', '17.248.156.81', '17.248.157.50', '17.248.158.115', '17.248.158.179', '17.248.159.84', '17.248.159.244', '17.248.160.53', '17.250.120.75', '18.223.65.208', '23.51.208.48', '34.201.192.181', '40.100.18.18', '40.101.147.114', '52.69.210.189', '52.98.68.178', '52.98.74.184', '52.98.84.98', '52.108.228.8', '52.114.52.18', '52.197.110.25', '54.64.196.22', '54.248.109.39', '60.13.186.5', '62.109.240.93', '62.109.242.31', '62.109.242.191', '69.26.161.8', '69.26.161.104', '69.26.161.168', '69.26.190.133', '74.125.24.97', '74.125.96.137', '91.107.119.3', '100.20.36.144', '100.21.83.62', '103.43.90.178', '108.174.11.37', '109.127.8.242', '139.162.30.99', '143.204.83.18', '150.253.217.78', '155.190.254.247', '155.190.255.56', '155.190.255.216', '170.133.144.177', '170.133.146.51', '170.133.147.116', '170.133.147.180', '170.133.148.85', '170.133.148.149', '170.133.149.54', '170.133.149.214', '170.133.151.152', '170.133.151.248', '170.133.161.226', '170.133.162.35', '170.133.162.195', '170.133.177.210', '170.133.178.19', '172.217.25.200', '172.217.27.74', '173.39.236.78', '173.194.49.216', '183.79.248.124', '184.28.218.178', '192.29.19.178', '202.232.140.10', '207.182.171.96', '207.182.189.18', '207.182.189.114', '216.58.199.65', '216.58.201.99', '216.151.152.53', '216.151.152.213', '216.151.153.22', '216.151.153.118', '216.151.153.182', '2404:6800:4006:0803:0000:0000:0000:200a', '2404:6800:4006:0809:0000:0000:0000:2004', '3.21.191.84', '3.133.216.29', '3.235.80.207', '3.235.81.16', '3.235.81.176', '10.35.150.68', '10.100.11.24', '10.244.3.0', '13.59.223.88', '13.59.223.248', '13.68.93.109', '13.224.177.229', '13.225.103.90', '13.230.115.161', '13.250.207.233', '17.57.12.11', '17.253.66.125', '18.230.160.51', '23.202.169.125', '34.198.199.106', '35.167.118.57', '52.7.93.113', '52.21.221.35', '52.98.41.162', '52.98.89.50', '52.114.6.175', '52.114.15.120', '52.114.62.103', '52.197.185.143', '54.187.151.121', '54.230.251.50', '62.109.211.43', '62.109.241.73', '62.109.241.137', '62.109.241.233', '62.109.243.11', '66.116.153.142', '69.26.161.115', '69.26.161.179', '69.26.190.80', '69.26.190.144', '74.125.200.156', '74.125.203.95', '104.16.204.11', '104.70.238.55', '104.74.20.25', '104.244.42.5', '111.90.138.38', '117.102.177.135', '146.112.59.36', '150.253.217.89', '150.253.217.153', '150.253.217.249', '151.101.228.157', '155.190.254.162', '155.190.255.67', '170.133.144.124', '170.133.146.222', '170.133.148.96', '170.133.148.160', '170.133.151.99', '170.133.160.108', '170.133.161.141', '170.133.161.237', '170.133.162.46', '170.133.162.206', '170.133.163.175', '170.133.178.30', '172.16.10.77', '172.16.10.141', '172.16.17.52', '172.16.254.129', '172.217.174.104', '173.37.239.94', '173.39.236.89', '174.143.184.158', '182.22.65.136', '188.241.140.222', '192.168.2.1', '210.128.165.62', '216.58.197.202', '216.58.221.226', '216.151.152.64', '216.151.153.33', '2404:6800:4004:0818:0000:0000:0000:2002', '2404:6800:4006:080e:0000:0000:0000:200a', '3.12.115.116', '3.13.192.96', '3.20.126.215', '3.132.36.109', '3.132.111.88', '3.136.104.109', '3.137.44.48', '3.235.73.171', '3.235.80.82', '13.59.223.27', '13.59.223.123', '13.59.223.187', '13.113.128.198', '13.225.89.79', '13.225.165.91', '13.249.171.73', '14.0.43.163', '18.230.160.86', '18.246.31.133', '23.41.63.23', '23.44.0.213', '34.198.112.150', '34.231.206.83', '35.164.141.22', '35.166.172.115', '40.126.12.32', '52.109.44.29', '52.109.120.73', '52.114.62.42', '62.109.240.43', '62.109.241.172', '62.109.242.141', '62.138.14.12', '64.233.188.157', '69.26.161.54', '69.26.161.214', '85.93.93.95', '104.75.164.75', '104.110.74.78', '104.116.37.227', '104.244.42.200', '111.223.64.26', '150.253.217.124', '152.199.40.67', '155.190.254.37', '155.190.254.197', '155.190.255.166', '160.16.199.129', '170.133.144.223', '170.133.146.161', '170.133.147.66', '170.133.147.130', '170.133.148.195', '170.133.149.100', '170.133.149.164', '170.133.151.38', '170.133.160.207', '170.133.161.16', '170.133.161.176', '170.133.162.145', '170.133.177.96', '172.16.17.151', '172.16.254.4', '172.17.1.6', '172.217.194.95', '173.39.236.28', '190.15.192.25', '207.182.170.77', '207.182.188.255', '207.182.189.128', '216.58.197.141', '216.58.200.80', '216.151.152.163', '216.151.153.68', '216.151.153.132', '2404:6800:4003:0c05:0000:0000:0000:009d', '2404:6800:4004:080f:0000:0000:0000:200e', '2404:6800:4004:081a:0000:0000:0000:2003', '2404:6800:4006:080b:0000:0000:0000:2010', '2404:6800:4008:0c01:0000:0000:0000:009c', '3.12.51.27', '3.14.178.248', '3.20.147.243', '3.21.65.128', '3.235.80.121', '3.235.80.185', '3.235.81.154', '10.100.11.2', '13.58.210.86', '13.59.223.66', '13.59.223.130', '13.59.223.226', '13.115.18.61', '13.225.103.68', '13.226.111.107', '13.249.171.112', '17.188.165.203', '17.248.155.5', '17.253.71.204', '20.190.140.51', '23.57.112.223', '23.72.183.183', '23.200.235.139', '35.190.18.200', '40.81.189.69', '40.100.29.210', '52.0.218.127', '52.14.243.170', '62.109.211.21', '62.109.241.211', '62.109.242.20', '69.26.161.93', '69.26.161.253', '69.26.176.108', '74.125.106.200', '99.86.181.19', '104.76.136.21', '117.18.237.97', '130.211.45.45', '143.204.83.7', '150.253.217.131', '150.253.217.227', '170.133.144.102', '170.133.145.135', '170.133.145.231', '170.133.147.9', '170.133.147.105', '170.133.147.169', '170.133.148.74', '170.133.148.138', '170.133.148.234', '170.133.149.43', '170.133.151.77', '170.133.151.141', '170.133.160.246', '170.133.161.215', '170.133.162.120', '170.133.162.184', '170.133.163.249', '170.133.176.230', '170.133.177.39', '170.133.177.199', '172.18.11.22', '172.217.0.36', '173.39.236.67', '192.168.1.10', '207.182.188.198', '207.182.189.167', '216.151.152.202', '216.151.153.11', '216.151.153.107', '216.151.153.171', '2620:01ec:0042:0000:0000:0000:0000:0132', '3.12.90.97', '3.12.130.137', '3.21.133.227', '3.21.143.205', '3.133.30.236', '3.235.73.145', '3.235.80.56', '3.235.80.216', '3.235.81.185', '10.67.254.245', '10.100.12.2', '10.244.0.6', '13.59.223.1', '13.59.223.161', '13.225.89.53', '13.225.99.127', '13.226.210.13', '13.237.204.156', '17.134.127.250', '17.248.128.169', '17.248.155.36', '17.253.75.207', '18.230.160.60', '23.42.116.241', '23.202.168.133', '23.210.219.16', '31.13.77.15', '52.38.176.142', '52.69.141.236', '52.70.47.45', '52.98.0.34', '52.98.0.194', '52.111.235.0', '52.114.132.22', '52.196.181.181', '52.199.123.120', '52.216.105.85', '54.178.196.88', '62.109.240.17', '62.109.242.211', '66.114.168.168', '69.26.161.124', '69.26.161.188', '69.26.176.43', '69.26.190.89', '69.26.190.153', '72.251.232.229', '74.125.68.97', '74.125.106.231', '74.125.200.101', '103.142.124.5', '104.17.71.206', '109.224.14.75', '114.29.210.151', '128.210.157.251', '142.250.4.136', '143.204.82.69', '151.101.66.132', '151.101.130.132', '155.190.254.171', '170.133.144.37', '170.133.144.197', '170.133.145.6', '170.133.145.166', '170.133.146.71', '170.133.147.40', '170.133.147.200', '170.133.148.105', '170.133.148.169', '170.133.151.12', '170.133.151.172', '170.133.160.181', '170.133.161.86', '170.133.161.246', '170.133.162.215', '170.133.163.24', '170.133.163.120', '170.133.177.70', '172.16.254.138', '172.65.226.29', '172.217.31.130', '172.217.31.226', '172.217.163.230', '173.39.236.98', '173.194.67.94', '184.50.207.229', '201.149.83.183', '207.182.171.180', '207.182.188.69', '210.132.71.37', '216.58.220.106', '216.151.152.73', '216.151.152.137', '216.151.152.233', '2404:6800:4003:0c04:0000:0000:0000:0064', '2404:6800:4004:0800:0000:0000:0000:2003', '3.16.110.30', '3.21.141.152', '3.21.195.46', '3.134.6.32', '3.134.211.77', '3.136.223.87', '3.218.227.233', '3.235.80.197', '3.235.81.102', '3.235.81.166', '13.59.223.78', '13.59.223.142', '13.59.223.238', '13.225.89.34', '13.225.99.12', '13.225.163.108', '13.249.175.160', '17.57.145.70', '17.248.153.143', '17.248.153.239', '17.248.154.208', '17.248.155.113', '17.248.157.51', '17.248.158.116', '17.248.158.180', '17.248.159.85', '17.248.159.149', '17.248.159.245', '17.250.120.76', '17.254.32.16', '18.140.221.224', '20.190.141.32', '20.190.141.192', '23.51.45.206', '23.78.216.62', '27.34.155.49', '35.189.143.146', '40.100.145.146', '49.212.198.32', '52.22.156.183', '52.42.173.212', '54.218.71.0', '54.238.46.243', '54.254.222.211', '62.109.211.33', '62.109.242.32', '62.109.242.192', '69.26.161.105', '69.26.190.70', '72.163.4.38', '74.125.96.234', '103.43.90.19', '103.43.90.179', '103.106.65.219', '104.41.182.82', '104.84.190.143', '104.89.123.1</t>
+    <t>['3.137.22.236', '3.235.73.189', '3.235.80.100', '10.35.150.25', '10.71.36.3', '10.122.72.84', '17.57.145.37', '17.142.169.200', '17.248.153.206', '17.248.154.111', '17.248.154.175', '17.248.155.80', '17.248.155.144', '17.248.157.18', '17.248.157.114', '17.248.158.147', '17.248.158.243', '17.248.159.212', '17.248.160.21', '17.248.160.117', '17.250.120.43', '18.189.105.218', '18.230.160.8', '23.78.216.29', '37.143.11.189', '40.100.2.98', '40.100.146.18', '40.100.146.178', '52.46.133.103', '52.96.18.2', '52.114.7.37', '54.168.176.250', '54.248.145.11', '62.109.240.61', '62.109.241.126', '62.109.241.190', '62.109.242.159', '62.109.243.64', '66.114.168.212', '69.26.161.72', '69.26.161.136', '69.26.161.232', '69.26.190.37', '74.125.20.157', '74.125.96.201', '94.103.36.55', '99.86.212.93', '104.79.118.107', '104.115.88.41', '113.40.37.74', '150.95.55.170', '150.253.217.206', '155.190.254.55', '155.190.254.215', '170.133.144.81', '170.133.147.84', '170.133.147.244', '170.133.148.213', '170.133.149.182', '170.133.150.87', '170.133.151.56', '170.133.162.163', '170.133.163.68', '170.133.163.228', '170.133.177.178', '170.133.178.147', '170.133.178.243', '172.16.0.56', '172.16.17.105', '172.16.254.118', '172.18.11.1', '172.217.31.174', '172.217.194.17', '172.217.194.113', '173.39.236.46', '183.79.248.252', '192.29.145.80', '192.29.146.209', '207.182.170.159', '210.132.71.81', '216.58.200.2', '216.58.200.98', '216.151.152.117', '216.151.152.181', '216.151.153.86', '2404:6800:4005:080a:0000:0000:0000:2004', '2603:1016:0401:1031:0000:0000:0000:0002', '3.12.99.253', '3.133.38.103', '3.235.81.172', '5.101.176.115', '10.115.53.47', '13.59.142.163', '13.59.223.148', '13.59.223.244', '13.225.89.40', '13.225.163.178', '13.249.171.34', '17.146.232.42', '17.248.153.245', '17.248.157.57', '17.253.53.204', '18.136.20.161', '18.219.159.249', '18.230.160.47', '20.190.141.38', '23.48.96.170', '34.68.219.28', '35.165.160.129', '52.14.209.26', '52.114.7.76', '52.114.36.41', '54.64.59.84', '54.85.182.58', '62.109.211.39', '62.109.241.229', '62.109.242.38', '64.104.44.103', '69.26.161.111', '69.26.161.175', '69.26.176.30', '69.26.176.190', '69.26.190.76', '69.26.190.140', '74.125.24.104', '74.125.68.84', '74.125.68.148', '74.125.203.155', '104.89.119.169', '147.75.95.74', '150.253.217.85', '151.101.40.157', '155.190.254.158', '155.190.255.223', '157.112.150.6', '157.240.22.6', '170.133.144.120', '170.133.144.184', '170.133.145.89', '170.133.145.153', '170.133.147.123', '170.133.148.92', '170.133.148.156', '170.133.148.252', '170.133.149.61', '170.133.150.30', '170.133.160.104', '170.133.162.202', '170.133.163.171', '170.133.177.57', '170.133.177.217', '170.133.178.186', '172.16.10.73', '172.217.24.78', '172.217.24.142', '173.36.128.140', '192.168.11.6', '198.54.117.200', '202.131.200.82', '207.182.171.103', '207.182.188.56', '207.182.189.25', '216.151.152.220', '216.151.153.29', '216.151.153.125', '2404:6800:4004:0808:0000:0000:0000:200e', '2404:6800:4006:0804:0000:0000:0000:2010', '2404:6800:4006:080e:0000:0000:0000:2006', '2603:1016:0401:1840:0000:0000:0000:0002', '3.130.62.30', '3.235.80.199', '3.235.81.168', '13.59.223.80', '13.59.223.240', '17.146.232.38', '17.248.128.152', '17.248.128.248', '17.248.152.176', '17.248.153.145', '17.248.153.241', '17.248.154.210', '17.248.157.53', '17.248.158.118', '17.248.158.182', '17.250.120.78', '20.190.140.225', '20.190.141.34', '20.190.141.194', '23.37.149.70', '23.56.29.219', '23.199.77.124', '23.218.94.58', '23.218.96.156', '52.96.31.178', '52.98.65.18', '52.98.65.178', '52.109.12.18', '52.114.159.32', '52.219.74.66', '62.109.240.96', '62.109.241.225', '62.109.242.194', '64.104.44.99', '69.26.161.107', '69.26.161.171', '69.26.190.72', '69.26.190.136', '74.125.24.100', '74.125.200.148', '89.108.85.65', '103.4.52.150', '103.43.90.21', '103.43.90.181', '104.72.70.165', '143.204.82.52', '150.253.217.81', '150.253.217.145', '155.190.254.250', '170.133.144.116', '170.133.145.245', '170.133.151.91', '170.133.151.155', '170.133.160.100', '170.133.161.229', '170.133.162.38', '170.133.162.198', '170.133.177.53', '170.133.178.118', '170.133.178.182', '172.217.24.74', '172.217.24.138', '172.217.175.225', '173.37.137.80', '173.39.112.117', '192.168.11.2', '192.168.20.11', '207.182.188.212', '207.182.189.21', '207.182.189.117', '210.140.114.23', '216.58.197.194', '216.151.152.216', '216.151.153.25', '216.151.153.121', '216.151.153.185', '2603:1016:0001:0000:0000:0000:0000:0002', '3.12.112.141', '3.16.239.40', '3.132.26.95', '3.235.81.15', '3.235.81.175', '10.35.150.67', '10.100.11.23', '13.35.147.67', '13.59.223.87', '13.59.223.151', '13.59.223.247', '13.249.171.37', '18.177.96.103', '18.230.160.50', '23.218.27.190', '23.218.94.65', '52.27.192.63', '52.98.42.130', '52.98.42.226', '52.98.90.178', '52.114.132.12', '54.65.253.88', '54.229.146.201', '62.109.211.42', '62.109.241.136', '62.109.242.41', '64.104.44.106', '69.26.161.18', '69.26.161.178', '69.26.190.79', '69.26.190.143', '74.125.200.91', '74.125.200.155', '104.17.78.107', '104.18.102.194', '114.179.184.125', '150.253.217.88', '150.253.217.152', '155.190.255.66', '165.22.50.167', '170.133.144.27', '170.133.145.156', '170.133.145.252', '170.133.146.61', '170.133.146.221', '170.133.147.126', '170.133.149.224', '170.133.150.33', '170.133.150.193', '170.133.161.76', '170.133.161.236', '170.133.163.110', '170.133.176.155', '170.133.177.60', '172.16.10.76', '172.16.10.140', '172.16.17.51', '172.16.254.128', '172.217.175.72', '172.217.175.232', '173.39.128.140', '173.39.236.88', '182.161.72.131', '207.182.171.106', '216.151.152.63', '216.151.152.223', '216.151.153.32', '2404:6800:4003:0c02:0000:0000:0000:00bc', '2404:6800:4006:0809:0000:0000:0000:200e', '2a01:0111:f100:6000:0000:0000:4134:a76b', '3.1.14.27', '3.13.159.96', '3.14.111.79', '3.235.80.19', '3.235.80.115', '3.235.81.148', '13.59.223.60', '13.59.223.220', '13.112.43.51', '13.225.89.16', '13.225.165.28', '13.225.165.124', '17.151.240.53', '20.190.141.14', '23.75.80.135', '35.174.127.31', '35.213.89.114', '35.241.23.116', '40.126.14.99', '40.126.14.163', '52.22.86.95', '52.98.37.2', '52.98.37.98', '52.109.76.30', '52.111.246.6', '52.202.69.186', '62.109.211.15', '62.109.240.76', '62.109.241.205', '62.109.242.110', '62.109.242.174', '64.104.119.58', '69.26.161.87', '69.26.161.151', '69.26.161.247', '69.26.190.52', '99.86.181.109', '104.17.114.180', '114.29.210.210', '119.161.10.11', '142.0.160.57', '142.250.67.2', '144.2.12.5', '150.253.217.61', '151.101.66.191', '155.190.254.230', '157.240.11.35', '170.133.144.96', '170.133.144.160', '170.133.145.65', '170.133.147.3', '170.133.148.68', '170.133.148.228', '170.133.149.37', '170.133.150.6', '170.133.151.135', '170.133.151.231', '170.133.161.49', '170.133.162.18', '170.133.162.114', '170.133.163.83', '170.133.163.147', '170.133.163.243', '170.133.177.193', '170.133.178.98', '172.217.5.227', '172.217.175.45', '173.36.56.12', '173.39.236.61', '173.194.49.39', '173.194.49.199', '182.22.16.123', '192.0.78.25', '192.64.119.34', '193.107.19.244', '207.182.170.110', '207.182.170.174', '207.182.171.79', '207.182.171.143', '207.182.189.1', '207.182.189.161', '210.225.201.229', '212.1.215.117', '216.58.197.110', '216.58.197.174', '216.58.220.133', '216.151.152.36', '216.151.152.196', '216.151.153.101', '216.239.32.52', '222.230.178.21', '2001:0420:5e40:1254:a1c6:e970:cc24:2a77', '2404:6800:4003:0c03:0000:0000:0000:0080', '3.12.122.240', '3.16.0.178', '3.21.96.13', '3.34.215.119', '3.235.80.71', '3.235.80.231', '10.244.3.24', '13.59.223.176', '13.74.179.117', '13.110.10.232', '13.110.34.160', '13.113.103.66', '13.225.89.68', '13.225.101.80', '17.248.153.177', '17.248.154.82', '17.248.154.146', '17.248.157.85', '17.248.158.214', '17.250.120.14', '18.230.160.75', '20.190.140.161', '20.190.141.226', '23.62.226.154', '23.76.232.146', '23.202.168.84', '23.218.94.154', '34.196.2.127', '34.236.241.38', '35.162.163.99', '50.112.182.87', '52.4.227.82', '52.36.129.176', '52.111.229.9', '52.113.192.2', '52.114.74.43', '54.240.249.126', '54.249.21.113', '62.109.240.32', '62.109.241.161', '64.104.14.5', '69.26.161.203', '72.163.5.201', '87.236.210.124', '104.116.24.139', '108.177.97.155', '142.0.160.13', '150.253.217.113', '155.190.254.122', '155.190.254.186', '155.190.255.155', '155.190.255.251', '170.133.144.52', '170.133.144.212', '170.133.145.21', '170.133.145.117', '170.133.147.55', '170.133.148.24', '170.133.148.120', '170.133.149.89', '170.133.149.249', '170.133.150.218', '170.133.160.36', '170.133.161.165', '170.133.162.134', '170.133.163.39', '170.133.176.20', '170.133.176.116', '170.133.177.149', '170.133.177.245', '170.133.178.54', '170.133.180.88', '172.16.10.5', '172.16.10.101', '172.16.50.109', '172.18.136.1', '172.18.201.2', '172.217.175.1', '172.217.175.97', '172.217.194.84', '172.217.194.148', '173.37.149.124', '173.39.236.113', '184.28.223.90', '202.47.25.115', '202.218.128.207', '207.182.171.195', '207.182.188.148', '207.182.188.244', '207.182.189.53', '216.58.197.130', '216.58.197.226', '216.58.199.4', '216.151.152.88', '216.151.152.152', '222.230.178.73', '3.20.154.194', '3.21.146.89', '3.21.147.58', '3.235.73.186', '3.235.80.97', '10.122.72.81', '13.58.186.38', '13.58.233.117', '13.59.223.42', '13.224.177.23', '13.225.89.94', '13.225.90.223', '13.225.103.44', '13.226.210.54', '13.226.234.78', '17.248.153.43', '17.248.153.203', '17.248.154.108', '17.248.154.172', '17.248.155.77', '17.248.155.141', '17.248.156.46', '17.248.157.15', '17.248.157.111', '17.248.158.144', '17.248.158.240', '17.248.159.209', '17.248.160.18', '17.248.160.114', '17.250.120.200', '17.253.67.208', '18.221.22.164', '18.222.81.254', '18.230.160.5', '23.42.120.254', '23.51.41.198', '23.56.28.52', '23.56.163.59', '35.168.192.84', '35.174.84.2', '46.4.72.43', '50.112.179.110', '52.1.50.62', '52.74.118.249', '52.109.112.48', '52.111.230.4', '54.150.174.71', '54.255.84.4', '62.109.240.58', '62.109.241.123', '62.109.241.187', '66.114.165.206', '69.26.161.69', '69.26.161.133', '69.26.161.229', '69.26.176.148', '69.26.190.34', '69.171.250.13', '69.173.159.48', '74.125.23.157', '74.125.102.44', '99.86.181.91', '113.40.37.71', '114.29.210.32', '140.82.112.3', '143.204.82.14', '150.253.217.43', '150.253.217.203', '151.101.65.44', '151.101.129.44', '151.101.193.140', '153.120.128.154', '153.254.173.129', '155.190.254.52', '155.190.255.21', '155.190.255.117', '155.190.255.181', '157.240.11.17', '170.133.144.78', '170.133.145.47', '170.133.148.50', '170.133.150.148', '170.133.151.213', '170.133.160.222', '170.133.161.127', '170.133.161.191', '170.133.162.96', '170.133.176.206', '170.133.177.15', '170.133.177.175', '170.133.178.144', '170.133.178.240', '172.16.0.53', '172.16.10.191', '172.16.17.102', '172.16.254.19', '172.16.254.115', '172.217.23.131', '172.217.25.165', '173.39.236.43', '176.32.101.46', '183.79.219.124', '183.79.250.123', '185.84.60.26', '192.124.249.22', '195.20.53.157', '202.144.144.195', '207.182.188.110', '207.182.188.174', '207.182.189.143', '210.135.97.197', '210.226.37.238', '216.58.203.98', '216.58.204.131', '216.151.152.18', '216.151.152.114', '216.151.152.178', '216.151.153.83', '216.151.153.147', '2404:6800:4006:0807:0000:0000:0000:2003', '3.12.112.80', '3.12.184.24', '3.20.150.174', '3.235.80.49', '3.235.81.178', '13.59.223.90', '13.59.223.250', '13.113.175.148', '13.224.179.9', '13.225.99.120', '13.225.165.58', '17.151.2.101', '17.248.144.242', '18.140.103.22', '18.189.147.177', '18.230.160.53', '23.48.96.176', '23.200.154.18', '34.194.211.188', '42.99.128.144', '52.109.16.0', '52.109.52.36', '52.114.75.150', '52.114.128.43', '54.69.162.124', '62.109.211.45', '62.109.240.10', '62.109.241.235', '62.109.242.204', '64.233.189.189', '69.26.161.117', '69.26.161.181', '69.26.176.196', '69.26.190.82', '74.118.186.215', '74.125.200.94', '103.102.166.240', '104.18.11.234', '104.71.49.155', '104.79.101.7', '104.89.120.240', '124.146.215.42', '139.162.9.91', '150.253.217.91', '150.253.217.155', '151.101.228.159', '152.199.38.160', '152.199.43.37', '153.254.173.113', '155.190.254.164', '155.190.255.69', '170.133.144.126', '170.133.145.159', '170.133.146.128', '170.133.147.193', '170.133.148.98', '170.133.148.162', '170.133.149.131', '170.133.150.196', '170.133.151.165', '170.133.160.14', '170.133.160.110', '170.133.160.174', '170.133.162.208', '170.133.177.63', '170.133.177.223', '170.133.178.32', '170.133.178.192', '172.16.254.131', '172.19.31.1', '172.217.7.35', '172.217.174.106', '173.39.121.40', '173.39.236.155', '173.194.51.167', '188.241.140.224', '203.138.206.56', '210.140.125.76', '213.252.244.86', '216.58.199.78', '216.58.220.99', '216.151.152.66', '216.151.152.226', '2404:6800:4003:0c03:0000:0000:0000:005e', '2404:6800:4003:0c04:0000:0000:0000:005d', '2404:6800:4004:0819:0000:0000:0000:2003', '3.135.144.181', '3.235.73.202', '3.235.80.113', '10.244.2.1', '13.59.223.58', '13.59.223.218', '13.225.89.14', '17.253.83.208', '18.189.233.167', '18.220.49.208', '20.190.141.12', '23.72.207.39', '34.102.147.248', '34.215.71.187', '40.126.14.97', '52.96.69.66', '52.109.2.18', '54.65.107.105', '62.109.240.74', '62.109.241.203', '62.109.242.172', '64.233.188.188', '67.214.175.69', '69.26.161.85', '69.26.161.245', '69.26.176.4', '99.86.181.107', '104.70.236.151', '104.86.185.20', '111.223.64.57', '112.78.112.59', '112.140.42.23', '114.29.210.48', '124.155.222.72', '125.252.231.209', '134.209.106.40', '137.132.84.194', '143.204.83.95', '150.253.217.219', '153.254.173.145', '155.190.254.68', '170.133.145.223', '170.133.146.32', '170.133.147.161', '170.133.148.66', '170.133.148.130', '170.133.149.35', '170.133.149.195', '170.133.150.100', '170.133.150.164', '170.133.151.69', '170.133.151.133', '170.133.151.229', '170.133.160.142', '170.133.161.47', '170.133.162.16', '170.133.162.112', '170.133.162.176', '170.133.177.31', '170.133.177.127', '170.133.177.191', '172.16.50.55', '172.217.6.34', '172.217.167.99', '172.217.194.190', '192.99.148.26', '192.168.1.2', '192.168.10.11', '193.147.175.38', '195.20.44.100', '203.142.206.20', '207.182.170.172', '207.182.171.141', '207.182.188.30', '216.58.199.46', '216.58.220.131', '216.151.152.194', '216.151.153.99', '216.151.153.163', '3.132.56.208', '3.132.74.66', '3.135.83.72', '3.135.114.135', '3.235.73.154', '3.235.73.250', '3.235.80.65', '3.235.80.129', '3.235.80.225', '3.235.81.194', '10.0.0.3', '10.100.12.11', '10.244.2.49', '13.59.162.237', '13.59.223.10', '13.59.223.170', '13.83.56.107', '13.114.126.114', '13.225.89.62', '13.225.99.40', '13.230.133.101', '17.248.152.42', '17.248.153.171', '17.248.154.76', '17.248.154.140', '17.248.154.236', '17.248.156.14', '17.248.157.79', '17.248.158.208', '17.248.159.17', '17.248.159.113', '17.248.159.177', '17.248.160.82', '17.250.120.8', '17.250.120.104', '17.250.120.168', '17.253.69.210', '18.190.94.75', '18.218.28.237', '18.220.252.171', '18.223.42.22', '18.230.160.69', '23.50.87.117', '23.54.57.83', '52.98.71.50', '52.98.71.210', '52.109.2.130', '52.111.229.3', '52.114.142.105', '54.236.165.200', '54.251.181.169', '62.109.240.26', '62.109.243.29', '69.26.161.37', '69.26.161.197', '69.26.190.98', '74.125.24.190', '74.125.68.106', '74.125.96.166', '96.7.102.184', '103.142.124.14', '104.84.190.107', '104.116.35.112', '106.10.236.37', '112.78.125.88', '119.161.100.211', '125.252.228.158', '140.113.17.5', '150.253.217.171', '151.101.1.140', '151.101.193.44', '151.101.194.109', '155.190.254.20', '155.190.254.116', '155.190.254.180', '155.190.255.149', '170.133.144.46', '170.133.147.209', '170.133.148.18', '170.133.148.114', '170.133.150.52', '170.133.151.21', '170.133.160.30', '170.133.161.95', '170.133.162.64', '170.133.163.33', '170.133.177.79', '170.133.177.143', '170.133.178.208', '172.16.50.103', '172.18.11.62', '172.67.130.36', '172.217.26.38', '173.39.236.107', '185.199.111.154', '203.216.202.22', '207.182.171.189', '207.182.188.78', '207.182.188.142', '207.182.188.238', '207.182.189.47', '210.23.25.77', '216.151.152.82', '216.151.152.146', '216.151.152.242', '2603:1016:0401:100e:0000:0000:0000:0002', '3.12.47.187', '3.20.97.101', '3.235.73.182', '13.52.146.192', '13.59.223.198', '13.225.100.197', '13.227.75.42', '13.228.34.224', '13.249.135.48', '17.125.252.5', '17.137.166.35', '17.248.154.8', '17.248.154.104', '17.248.154.168', '17.248.155.73', '17.248.155.137', '17.248.156.42', '17.248.157.107', '17.248.158.140', '17.248.159.205', '17.248.160.14', '17.248.160.110', '17.250.122.70', '17.253.67.204', '18.200.164.99', '23.1.245.128', '23.33.208.27', '23.74.15.49', '34.196.148.7', '45.60.159.69', '45.124.65.231', '52.62.21.192', '52.98.43.146', '52.119.164.182', '52.119.170.28', '52.197.248.156', '52.205.197.33', '52.216.164.85', '54.69.35.105', '54.186.55.104', '54.214.170.191', '62.109.240.54', '62.109.241.183', '62.109.242.88', '64.68.120.41', '69.26.161.65', '69.26.161.129', '69.26.161.225', '69.26.190.30', '69.26.190.126', '74.125.130.100', '104.18.20.191', '104.18.168.19', '104.116.43.244', '143.204.82.10', '150.253.217.39', '150.253.217.199', '155.190.254.48', '155.190.255.17', '170.133.144.74', '170.133.144.234', '170.133.145.203', '170.133.146.12', '170.133.146.172', '170.133.147.77', '170.133.148.46', '170.133.148.206', '170.133.150.144', '170.133.150.240', '170.133.151.49', '170.133.151.209', '170.133.162.156', '170.133.163.61', '170.133.177.11', '170.133.177.107', '170.133.177.171', '170.133.178.236', '171.70.124.118', '172.16.0.49', '172.16.254.15', '172.217.25.1', '172.217.26.130', '172.217.194.106', '173.39.236.39', '185.153.221.146', '192.29.16.232', '192.29.144.168', '203.116.62.202', '207.182.188.10', '207.182.188.170', '207.182.189.75', '207.182.189.139', '207.182.189.235', '216.151.152.174', '216.151.153.79', '216.151.153.143', '3.12.90.97', '3.12.130.137', '3.21.133.227', '3.21.143.205', '3.133.30.236', '3.235.73.145', '3.235.80.56', '3.235.80.216', '3.235.81.185', '10.67.254.245', '10.100.12.2', '10.244.0.6', '13.59.223.1', '13.59.223.161', '13.225.89.53', '13.225.99.127', '13.226.210.13', '13.237.204.156', '17.134.127.250', '17.248.128.169', '17.248.155.36', '17.253.75.207', '18.230.160.60', '23.42.116.241', '23.202.168.133', '23.210.219.16', '31.13.77.15', '52.38.176.142', '52.69.141.236', '52.70.47.45', '52.98.0.34', '52.98.0.194', '52.111.235.0', '52.114.132.22', '52.196.181.181', '52.216.105.85', '54.178.196.88', '62.109.240.17', '62.109.242.211', '66.114.168.168', '69.26.161.124', '69.26.161.188', '69.26.176.43', '69.26.190.89', '69.26.190.153', '72.251.232.229', '74.125.68.97', '74.125.106.231', '74.125.200.101', '103.142.124.5', '104.17.71.206', '109.224.14.75', '114.29.210.151', '128.210.157.251', '142.250.4.136', '143.204.82.69', '151.101.66.132', '151.101.130.132', '155.190.254.171', '170.133.144.37', '170.133.144.197', '170.133.145.166', '170.133.146.71', '170.133.147.40', '170.133.147.200', '170.133.148.105', '170.133.148.169', '170.133.151.12', '170.133.151.172', '170.133.160.181', '170.133.161.86', '170.133.161.246', '170.133.162.215', '170.133.163.24', '170.133.163.120', '170.133.177.70', '172.16.254.138', '172.65.226.29', '172.217.31.130', '172.217.31.226', '172.217.163.230', '173.39.236.98', '173.194.67.94', '184.50.207.229', '201.149.83.183', '207.182.171.180', '207.182.188.69', '210.132.71.37', '216.58.220.106', '216.151.152.73', '216.151.152.137', '216.151.152.233', '2404:6800:4003:0c04:0000:0000:0000:0064', '2404:6800:4004:0800:0000:0000:0000:2003', '3.19.176.198', '3.21.115.199', '3.21.152.12', '3.21.157.209', '3.134.1.68', '3.235.73.199', '3.235.80.110', '3.235.81.143', '10.104.75.19', '13.59.223.55', '13.59.223.215', '13.224.176.67', '13.225.89.107', '13.225.165.119', '13.249.171.101', '17.253.83.205', '18.176.241.217', '18.188.135.67', '23.67.177.171', '23.76.65.50', '23.210.220.199', '52.20.67.9', '52.46.135.211', '52.98.42.194', '52.109.8.21', '52.109.116.33', '52.196.194.216', '52.198.128.244', '54.238.191.205', '62.109.240.71', '62.109.241.200', '62.109.243.74', '64.68.100.6', '69.26.161.146', '69.26.190.47', '72.163.128.139', '74.125.24.139', '99.83.219.81', '99.86.181.8', '99.86.183.202', '103.84.152.177', '104.18.11.39', '104.47.32.31', '104.71.48.151', '106.10.236.146', '119.28.229.70', '130.35.216.253', '150.253.217.56', '150.253.217.216', '151.101.40.64', '155.190.254.65', '155.190.255.34', '155.190.255.194', '170.133.144.251', '170.133.148.63', '170.133.148.223', '170.133.149.32', '170.133.151.66', '170.133.160.75', '170.133.162.13', '170.133.162.173', '170.133.176.219', '170.133.177.28', '170.133.177.188', '172.16.50.52', '172.18.11.11', '172.18.202.10', '172.67.171.218', '173.39.236.56', '184.28.223.33', '190.128.29.1', '207.182.170.169', '207.182.171.138', '207.182.171.234', '207.182.188.187', '207.182.189.156', '212.224.106.100', '216.151.152.127', '2404:6800:4005:080a:0000:0000:0000:200e', '3.12.88.131', '3.17.169.15', '3.20.178.21', '3.21.119.217', '3.21.138.172', '3.21.187.125', '3.132.19.198', '3.235.73.149', '3.235.80.60', '3.235.80.220', '3.235.81.189', '10.244.1.75', '13.52.146.255', '13.59.223.165', '13.225.89.57', '13.226.234.41', '17.248.128.173', '17.248.156.9', '17.248.156.105', '17.248.157.74', '17.248.159.108', '17.248.159.172', '17.248.160.77', '17.253.1.201', '18.181.148.5', '18.217.227.176', '18.230.160.64', '23.32.5.80', '23.53.155.81', '40.126.5.35', '42.99.128.155', '52.96.26.162', '52.96.42.82', '52.198.199.41', '54.64.129.107', '62.109.211.56', '62.109.240.21', '62.109.241.150', '62.109.241.246', '62.109.243.24', '64.85.233.8', '64.104.124.40', '66.117.25.58', '69.26.161.32', '69.26.161.192', '69.26.183.22', '69.26.190.93', '74.125.24.121', '74.125.68.101', '133.18.203.242', '142.250.66.234', '143.204.82.73', '150.253.217.6', '150.253.217.102', '150.253.217.166', '155.190.254.15', '170.133.145.10', '170.133.146.75', '170.133.147.44', '170.133.148.109', '170.133.148.173', '170.133.149.78', '170.133.149.238', '170.133.151.16', '170.133.151.112', '170.133.151.176', '170.133.160.121', '170.133.161.90', '170.133.161.154', '170.133.161.250', '170.133.162.59', '170.133.162.219', '170.133.163.28', '170.133.177.74', '170.133.177.138', '171.68.38.65', '172.16.50.162', '172.31.0.1', '172.65.212.243', '172.217.26.33', '172.217.31.134', '172.217.163.234', '182.161.73.210', '192.29.32.23', '192.168.21.1', '199.187.129.193', '202.228.215.17', '207.182.188.137', '209.177.149.137', '216.58.220.110', '216.151.152.77', '216.151.152.141', '216.151.152.237', '216.151.153.46', '2404:6800:4004:081d:0000:0000:0000:200a', '2404:6800:4005:0803:0000:0000:0000:2003', '2603:1016:0001:0015:0000:0000:0000:0002', '3.12.128.88', '3.21.81.32', '3.21.183.6', '3.21.224.239', '3.137.5.192', '3.235.80.9', '13.108.250.124', '13.110.8.232', '13.110.32.160', '13.110.33.129', '13.225.89.6', '13.225.89.102', '13.225.99.80', '13.225.165.18', '13.226.111.91', '13.226.217.37', '13.238.77.77', '17.248.148.14', '17.248.153.211', '17.248.155.149', '17.248.157.23', '17.250.120.48', '17.250.121.17', '18.178.49.82', '18.221.186.240', '18.221.249.207', '18.223.72.252', '23.48.96.232', '23.219.213.50', '35.172.86.206', '35.244.232.184', '40.100.29.34', '40.100.29.194', '52.1.188.240', '52.109.120.0', '52.109.124.68', '52.216.176.109', '62.109.241.195', '62.109.243.69', '64.127.71.73', '69.26.161.77', '69.26.176.252', '69.26.190.42', '103.102.44.14', '104.20.60.209', '104.84.199.60', '150.253.217.51', '150.253.217.211', '151.101.76.159', '155.190.254.60', '155.190.254.220', '155.190.255.29', '155.190.255.125', '170.133.145.215', '170.133.146.184', '170.133.147.89', '170.133.147.153', '170.133.147.249', '170.133.148.58', '170.133.151.221', '170.133.160.70', '170.133.160.134', '170.133.162.8', '170.133.162.168', '170.133.177.119', '170.133.177.183', '170.133.178.88', '170.133.178.248', '171.70.168.238', '172.16.17.14', '172.16.17.110', '172.16.199.100', '172.16.254.123', '172.217.25.13', '172.217.26.142', '172.217.31.179', '172.217.175.35', '192.29.34.166', '192.168.50.11', '195.20.44.252', '207.182.170.164', '207.182.171.133', '207.182.188.182', '207.182.189.87', '207.182.189.151', '207.182.189.247', '208.74.205.244', '209.132.183.69', '216.58.195.66', '216.58.196.195', '216.58.203.106', '216.151.152.122', '216.151.152.186', '216.151.153.91', '216.151.153.155', '2404:6800:4004:0812:0000:0000:0000:2002', '2.20.136.34', '3.19.1.93', '3.21.188.182', '3.133.37.143', '3.134.75.52', '3.221.64.178', '10.122.72.68', '13.56.98.163', '13.59.223.29', '13.59.223.125', '13.59.223.189', '13.224.0.57', '13.224.2.91', '13.225.100.28', '13.225.103.31', '18.182.239.247', '18.219.39.202', '18.230.160.88', '18.232.46.100', '23.55.47.187', '23.75.95.55', '23.78.217.142', '23.211.136.120', '23.220.203.50', '40.97.223.114', '40.100.2.82', '40.100.146.2', '40.126.12.34', '52.23.73.146', '52.109.112.35', '52.201.3.186', '54.238.191.115', '54.248.0.170', '58.195.1.4', '62.109.240.45', '63.249.152.74', '69.26.161.56', '69.26.161.216', '69.26.190.21', '69.26.190.117', '74.125.68.189', '74.125.130.91', '99.86.212.77', '104.116.208.112', '108.174.11.85', '142.250.66.162', '150.253.217.30', '152.199.4.33', '155.190.254.39', '155.190.254.199', '155.190.255.8', '155.190.255.104', '170.133.144.65', '170.133.145.194', '170.133.147.228', '170.133.150.135', '170.133.150.231', '170.133.151.40', '170.133.151.200', '170.133.161.18', '170.133.162.147', '170.133.162.243', '170.133.163.212', '170.133.178.67', '172.16.17.153', '172.16.254.102', '172.17.1.8', '172.18.254.4', '172.217.175.14', '172.217.175.110', '172.217.194.97', '173.194.49.8', '192.29.144.255', '202.233.84.1', '207.182.188.161', '207.182.189.66', '207.182.189.130', '209.197.206.38', '216.58.220.198', '216.151.152.101', '216.151.152.165', '216.151.153.70', '216.151.153.134', '2404:6800:4003:0c00:0000:0000:0000:0064', '3.12.193.177', '3.14.154.136', '3.16.110.186', '3.20.12.148', '3.21.112.55', '3.21.222.133', '3.235.80.193', '3.235.81.2', '3.235.81.162', '10.104.16.203', '10.115.53.37', '10.141.44.66', '13.59.125.72', '13.59.223.74', '13.59.223.138', '13.59.223.234', '13.225.165.42', '17.142.171.7', '17.188.165.211', '17.248.128.146', '17.248.152.10', '17.248.153.139', '17.248.153.235', '17.248.154.204', '17.248.155.13', '17.248.155.109', '17.248.155.173', '17.248.156.78', '17.248.157.47', '17.248.158.112', '17.248.158.176', '17.248.159.81', '17.248.159.145', '17.248.159.241', '17.248.160.50', '17.250.120.72', '17.250.120.136', '17.250.120.232', '23.194.236.218', '34.237.209.191', '35.175.44.25', '45.54.49.1', '52.111.228.2', '52.114.6.97', '52.114.36.31', '54.69.39.113', '62.109.211.29', '62.109.242.28', '62.109.242.124', '62.109.242.188', '69.26.161.5', '69.26.161.101', '69.26.161.165', '69.26.190.66', '69.26.190.130', '72.163.11.169', '74.125.24.94', '74.125.96.230', '99.86.212.122', '103.102.166.224', '114.29.196.18', '140.82.113.4', '142.250.67.16', '144.2.3.10', '150.253.217.75', '150.253.217.139', '151.101.1.44', '153.254.173.97', '155.190.254.148', '155.190.255.53', '170.133.144.14', '170.133.144.110', '170.133.145.239', '170.133.147.177', '170.133.148.82', '170.133.148.146', '170.133.148.242', '170.133.151.85', '170.133.151.149', '170.133.151.245', '170.133.177.47', '170.133.178.16', '170.133.178.112', '170.133.178.176', '172.99.1.131', '172.217.25.37', '172.217.164.112', '185.199.110.153', '192.0.73.2', '202.47.25.77', '202.131.200.72', '207.182.189.111', '216.151.152.50', '216.151.152.210', '216.151.153.19', '2404:6800:4004:0809:0000:0000:0000:2003', '3.132.102.148', '3.235.73.176', '3.235.80.87', '10.122.72.71', '13.35.147.108', '13.59.223.192', '13.224.183.115', '13.225.99.62', '13.225.165.96', '17.188.132.72', '17.248.161.137', '18.176.183.8', '18.218.252.35', '18.230.160.91', '20.190.140.177', '23.46.16.200', '23.67.177.84', '23.74.15.43', '23.76.232.98', '23.210.224.148', '23.210.228.56', '23.211.136.27', '34.200.47.152', '34.217.222.150', '37.123.99.188', '52.14.179.40', '52.68.35.130', '52.98.33.162', '52.114.128.81', '52.203.156.212', '54.174.50.73', '62.109.241.177', '62.109.242.242', '62.109.243.51', '69.26.161.59', '69.26.161.219', '69.26.190.120', '74.125.130.94', '74.125.171.135', '99.86.8.4', '104.17.72.206', '104.71.49.33', '104.111.169.145', '104.116.34.229', '124.110.195.160', '142.250.4.103', '143.204.82.100', '151.101.1.2', '153.120.48.160', '155.190.254.42', '155.190.255.11', '155.190.255.171', '157.240.7.35', '170.133.144.228', '170.133.145.197', '170.133.146.6', '170.133.147.71', '170.133.147.135', '170.133.148.200', '170.133.150.138', '170.133.151.43', '170.133.151.203', '170.133.162.86', '170.133.162.246', '170.133.176.196', '170.133.177.5', '170.133.177.101', '172.16.0.43', '172.16.254.105', '172.17.1.11', '172.217.161.67', '172.217.161.131', '172.217.174.208', '172.217.194.100', '173.37.146.41', '173.38.200.158', '173.39.236.33', '192.29.144.162', '192.29.147.5', '202.241.208.56', '207.182.170.82', '207.182.171.211', '207.182.189.69', '207.182.189.133', '216.151.152.104', '216.151.153.73', '3.21.62.194', '3.21.150.218', '3.21.161.5', '3.21.180.248', '3.21.226.6', '3.235.73.183', '10.35.150.19', '13.52.146.193', '13.59.223.39', '13.59.223.199', '13.225.89.91', '13.225.165.103', '14.128.1.165', '17.167.192.128', '17.248.153.200', '17.248.154.9', '17.248.154.105', '17.248.154.169', '17.248.155.74', '17.248.155.138', '17.248.156.43', '17.248.157.108', '17.248.158.141', '17.248.158.237', '17.248.159.206', '17.248.160.15', '17.248.160.111', '17.253.5.207', '17.253.67.205', '18.189.77.216', '18.224.158.70', '23.67.57.163', '23.198.129.72', '23.200.148.57', '34.206.197.175', '34.239.74.83', '45.120.52.95', '52.24.234.60', '52.70.61.193', '52.109.124.57', '52.111.230.1', '52.114.32.24', '54.65.211.254', '54.174.142.76', '62.109.240.55', '62.109.241.184', '62.109.242.153', '66.114.165.203', '66.114.168.46', '69.26.161.66', '69.26.161.130', '69.26.161.226', '69.26.176.241', '69.26.190.31', '69.26.190.127', '69.173.159.45', '72.163.11.230', '74.125.23.154', '103.233.192.20', '104.17.67.176', '116.214.81.37', '117.18.237.70', '119.63.198.180', '140.238.44.96', '143.204.83.76', '150.253.217.40', '150.253.217.200', '151.101.24.64', '155.190.254.49', '155.190.255.18', '155.190.255.114', '155.190.255.178', '170.133.144.75', '170.133.144.235', '170.133.145.204', '170.133.146.13', '170.133.146.173', '170.133.147.238', '170.133.149.176', '170.133.151.50', '170.133.160.219', '170.133.161.28', '170.133.161.124', '170.133.162.93', '170.133.162.253', '170.133.177.12', '170.133.178.141', '170.133.178.237', '172.16.0.50', '172.16.254.16', '172.99.1.32', '172.217.24.33', '172.217.24.193', '172.217.25.2', '172.217.25.98', '172.217.26.131', '172.217.161.74', '172.217.161.138', '172.217.167.80', '173.36.27.122', '184.28.223.17', '185.6.242.251', '185.35.138.22', '192.29.16.137', '203.116.62.203', '207.182.189.76', '216.58.220.208', '216.151.152.175', '3.19.38.59', '3.21.101.184', '3.21.135.154', '3.136.176.112', '3.136.186.90', '3.235.80.205', '3.235.81.174', '10.100.11.22', '13.59.209.200', '13.59.223.86', '13.59.223.150', '13.59.223.246', '17.253.87.208', '18.230.160.49', '23.210.228.14', '23.220.203.11', '34.197.250.60', '34.240.174.69', '35.244.244.136', '52.68.158.115', '52.109.52.32', '52.114.62.101', '52.114.132.11', '52.197.240.100', '54.72.124.79', '54.178.226.107', '62.109.211.41', '62.109.242.200', '69.26.161.17', '69.26.161.113', '69.26.161.177', '69.26.176.32', '69.26.176.192', '69.26.190.78', '74.125.24.106', '74.125.200.154', '87.237.198.245', '99.86.181.39', '104.47.33.31', '104.244.42.3', '117.18.232.240', '137.132.155.197', '143.204.83.123', '150.253.217.87', '150.253.217.151', '151.101.26.49', '151.101.66.217', '151.101.130.217', '155.190.254.96', '170.133.144.122', '170.133.144.186', '170.133.148.94', '170.133.149.223', '170.133.160.10', '170.133.160.170', '170.133.161.75', '170.133.161.139', '170.133.162.44', '170.133.162.204', '170.133.178.124', '170.133.178.188', '170.133.180.222', '172.16.10.75', '172.217.24.80', '172.217.174.102', '173.39.236.87', '173.39.236.151', '176.32.119.108', '182.161.72.130', '182.161.73.195', '183.79.255.12', '184.26.219.94', '192.168.5.2', '202.131.200.84', '207.182.171.105', '207.182.189.27', '207.182.189.123', '210.140.195.78', '216.58.199.74', '216.151.152.62', '216.151.152.222', '2404:6800:4006:0808:0000:0000:0000:200e', '3.12.178.240', '3.12.204.42', '3.21.138.63', '3.132.76.210', '3.235.73.200', '3.235.80.111', '3.235.81.144', '10.35.150.36', '10.75.231.141', '13.35.147.36', '13.58.254.216', '13.59.223.56', '13.59.223.216', '13.225.89.12', '13.225.99.86', '13.226.214.40', '17.253.83.206', '18.136.219.172', '18.178.3.74', '18.182.179.214', '18.191.39.161', '18.225.13.101', '20.190.133.66', '23.75.87.202', '23.77.142.31', '23.78.216.40', '23.218.94.34', '23.219.212.247', '35.199.147.118', '40.100.55.2', '52.24.122.189', '52.69.65.23', '52.98.41.130', '52.98.89.18', '52.114.128.9', '52.193.124.54', '52.196.98.153',</t>
   </si>
   <si>
     <t>tmitsue:Lab</t>
   </si>
   <si>
-    <t>['172.16.0.48', '172.16.17.1', '172.16.254.14', '172.16.254.110', '10.0.0.2', '10.244.2.48', '172.16.50.102', '172.16.10.200', '172.16.17.111', '172.16.254.124', '172.16.17.153', '172.16.254.102', '172.18.254.4', '172.16.0.53', '172.16.10.191', '172.16.17.102', '172.16.254.19', '172.16.254.115', '10.244.3.23', '172.16.10.4', '172.16.10.100', '172.16.50.108', '172.18.201.1', '10.244.2.0', '172.16.50.54', '10.244.1.77', '172.16.10.92', '172.16.50.164', '172.16.10.71', '172.16.10.231', '172.16.2.2', '172.16.10.202', '172.16.17.17', '172.16.254.126', '172.16.255.255', '172.16.50.155', '172.16.254.135', '172.16.2.20', '172.16.199.121', '10.244.3.29', '172.16.0.32', '172.16.10.10', '172.16.10.106', '172.16.50.114', '10.244.3.0', '172.16.10.77', '172.16.10.141', '172.16.17.52', '172.16.254.129', '172.16.17.151', '172.16.254.4', '172.18.11.22', '10.244.0.6', '172.16.254.138', '172.16.10.131', '10.244.3.21', '172.16.10.2', '172.16.17.233', '172.18.201.255', '172.16.2.12', '172.16.50.60', '172.16.10.132', '172.16.254.136', '10.244.2.1', '172.16.50.55', '10.244.3.26', '172.16.10.103', '172.16.55.52', '172.16.17.101', '172.16.254.18', '10.244.3.1', '172.16.10.142', '172.16.17.53', '172.16.254.130', '172.16.0.54', '172.16.10.192', '172.16.17.103', '172.16.254.20', '172.16.254.116', '172.16.17.152', '172.16.254.5', '172.16.254.101', '172.18.254.3', '172.18.254.99', '172.16.10.219', '172.16.254.104', '172.16.17.14', '172.16.17.110', '172.16.199.100', '172.16.254.123', '10.244.0.1', '172.16.2.201', '172.16.50.153', '172.16.254.133', '172.16.254.206', '172.18.202.24', '172.16.0.60', '172.16.17.109', '172.16.254.122', '10.244.1.76', '172.16.10.91', '172.16.50.163', '172.16.2.14', '172.16.50.62', '172.18.11.21', '10.244.3.19', '172.16.50.104', '172.16.0.45', '172.16.10.76', '172.16.10.140', '172.16.17.51', '172.16.254.128', '172.16.10.203', '172.16.17.18', '172.16.50.51', '172.16.254.127', '172.16.0.43', '172.16.254.105', '172.16.0.46', '172.16.10.72', '10.244.1.0', '172.16.0.37', '172.16.10.111', '172.16.17.150', '172.16.254.3', '172.18.11.23', '172.16.0.50', '172.16.254.16', '172.16.50.154', '172.16.254.134', '10.244.3.30', '172.16.0.33', '172.16.10.11', '172.16.10.107', '172.16.16.17', '172.16.50.115', '172.16.50.53', '172.18.11.12', '10.244.2.56', '10.244.3.25', '172.16.10.6', '172.16.10.102', '172.16.17.141', '172.16.50.110', '172.16.55.51', '172.18.201.3', '172.16.254.131', '172.16.2.1', '172.16.10.201', '172.16.17.112', '172.16.254.125', '172.16.255.254', '10.244.3.24', '172.16.10.5', '172.16.10.101', '172.16.50.109', '172.18.201.2', '172.16.77.1', '172.16.0.47', '172.16.254.13', '172.16.254.109', '172.16.10.73', '172.16.2.13', '172.16.17.28', '10.244.3.20', '172.16.10.1', '172.16.17.232', '172.16.50.105', '172.18.201.254', '172.16.0.49', '172.16.254.15', '10.244.2.58', '10.244.3.27', '172.16.0.30', '172.16.10.104', '172.16.0.51', '172.16.254.17', '172.16.10.75', '172.16.0.70', '172.18.221.1', '10.244.3.22', '172.16.10.3', '172.16.10.99', '10.244.0.0', '172.16.50.152', '172.16.254.132', '172.16.17.121', '172.16.50.58', '10.0.0.1', '172.16.10.93', '172.16.50.165', '172.16.0.55', '172.16.10.193', '172.16.17.104', '172.16.254.117', '10.244.3.31', '172.16.10.12', '172.16.10.108', '172.16.17.147', '172.16.2.11', '172.16.50.59', '172.18.202.177', '10.244.3.28', '172.16.0.31', '172.16.10.105', '172.16.50.113', '172.16.0.56', '172.16.17.105', '172.16.254.118', '172.18.11.1', '10.244.3.32', '172.16.0.35', '172.16.10.13', '172.16.254.1', '172.16.0.59', '172.16.17.108', '172.18.11.4', '10.244.1.75', '172.16.50.162', '10.244.3.33', '172.16.0.36', '172.16.10.14', '172.16.254.2', '172.16.0.58', '172.16.17.11', '172.16.17.107', '172.18.11.3', '10.244.0.5', '172.16.254.137', '172.16.0.57', '172.16.17.106', '172.16.254.119', '172.18.11.2', '172.18.202.1', '172.18.202.215', '172.16.10.115', '172.16.254.103', '172.18.254.5', '172.16.0.44', '172.16.10.118', '172.16.254.106', '172.16.50.52', '172.18.11.11', '172.18.202.10', '10.244.2.49', '172.16.50.103']</t>
+    <t>['172.16.0.56', '172.16.17.105', '172.16.254.118', '172.18.11.1', '172.16.10.73', '172.16.10.76', '172.16.10.140', '172.16.17.51', '172.16.254.128', '10.244.3.24', '172.16.10.5', '172.16.10.101', '172.16.50.109', '172.18.201.2', '172.16.0.53', '172.16.10.191', '172.16.17.102', '172.16.254.19', '172.16.254.115', '172.16.254.131', '10.244.2.1', '172.16.50.55', '10.244.2.49', '172.16.50.103', '172.16.0.49', '172.16.254.15', '10.244.0.6', '172.16.254.138', '172.16.50.52', '172.18.11.11', '172.18.202.10', '10.244.1.75', '172.16.50.162', '172.16.17.14', '172.16.17.110', '172.16.199.100', '172.16.254.123', '172.16.17.153', '172.16.254.102', '172.18.254.4', '172.16.0.43', '172.16.254.105', '172.16.0.50', '172.16.254.16', '172.16.10.75', '172.16.50.53', '172.18.11.12', '10.0.0.2', '10.244.2.48', '172.16.50.102', '172.16.0.45', '172.16.254.107', '172.16.2.11', '172.16.50.59', '172.18.202.177', '10.244.3.30', '172.16.0.33', '172.16.10.11', '172.16.10.107', '172.16.16.17', '172.16.50.115', '172.16.0.59', '172.16.17.108', '172.18.11.4', '10.244.1.76', '172.16.10.91', '172.16.50.163', '172.16.254.104', '172.16.10.131', '10.244.0.0', '172.16.50.152', '172.16.254.132', '172.16.2.12', '172.16.50.60', '172.18.202.215', '172.16.10.132', '10.244.2.0', '172.16.50.54', '172.16.10.115', '172.16.254.103', '172.18.254.5', '10.244.3.19', '172.16.50.104', '172.16.10.203', '172.16.17.18', '172.16.50.51', '172.16.254.127', '172.16.254.136', '172.16.0.48', '172.16.17.1', '172.16.254.14', '172.16.254.110', '10.244.3.1', '172.16.10.142', '172.16.17.53', '172.16.254.130', '172.16.2.2', '172.16.10.202', '172.16.17.17', '172.16.254.126', '172.16.255.255', '10.244.1.77', '172.16.10.92', '172.16.50.164', '172.16.77.1', '10.244.3.23', '172.16.10.4', '172.16.10.100', '172.16.50.108', '172.18.201.1', '172.16.0.60', '172.16.17.109', '172.16.254.122', '10.0.0.1', '172.16.10.93', '172.16.50.165', '172.16.2.13', '172.16.17.28', '10.244.3.22', '172.16.10.3', '172.16.10.99', '172.16.10.71', '172.16.10.231', '172.16.2.1', '172.16.10.201', '172.16.17.112', '172.16.254.125', '172.16.255.254', '10.244.3.29', '172.16.0.32', '172.16.10.10', '172.16.10.106', '172.16.50.114', '10.244.3.32', '172.16.0.35', '172.16.10.13', '172.16.254.1', '172.16.0.46', '172.16.254.108', '10.244.3.0', '172.16.10.77', '172.16.10.141', '172.16.17.52', '172.16.254.129', '172.16.10.219', '10.244.3.33', '172.16.0.36', '172.16.10.14', '172.16.254.2', '172.16.0.51', '172.16.254.17', '172.16.17.152', '172.16.254.5', '172.16.254.101', '172.18.254.3', '172.18.254.99', '172.16.254.206', '172.18.202.24', '10.244.2.58', '10.244.3.27', '172.16.0.30', '172.16.10.104', '172.16.0.57', '172.16.17.106', '172.16.254.119', '172.18.11.2', '172.18.202.1', '10.244.1.0', '172.16.0.37', '172.16.10.111', '172.16.17.150', '172.16.254.3', '172.16.0.55', '172.16.10.193', '172.16.17.104', '172.16.254.117', '172.16.50.155', '172.16.254.135', '172.16.0.70', '172.18.221.1', '10.244.3.20', '172.16.10.1', '172.16.17.232', '172.16.50.105', '172.18.201.254', '172.16.0.58', '172.16.17.11', '172.16.17.107', '172.18.11.3', '10.244.0.5', '172.16.254.137', '10.244.0.1', '172.16.2.201', '172.16.50.153', '172.16.254.133', '172.16.17.121', '172.16.50.58', '10.244.3.21', '172.16.10.2', '172.16.17.233', '172.18.201.255', '172.16.17.101', '172.16.254.18', '172.18.11.23', '10.244.3.31', '172.16.10.12', '172.16.10.108', '172.16.17.147', '172.16.0.47', '172.16.254.13', '172.16.254.109', '172.16.50.154', '172.16.254.134', '172.16.2.14', '172.16.50.62', '172.18.11.21', '172.16.17.151', '172.16.254.4', '172.16.0.54', '172.16.10.192', '172.16.17.103', '172.16.254.20', '172.16.254.116', '10.244.3.26', '172.16.10.103', '172.16.55.52', '172.18.11.22', '10.244.2.56', '10.244.3.25', '172.16.10.6', '172.16.10.102', '172.16.17.141', '172.16.50.110', '172.16.55.51', '172.18.201.3', '172.16.0.44', '172.16.10.118', '172.16.254.106', '172.16.10.72', '172.16.10.200', '172.16.17.111', '172.16.254.124', '10.244.3.28', '172.16.0.31', '172.16.10.105', '172.16.50.113', '172.16.2.20', '172.16.199.121']</t>
   </si>
   <si>
     <t>(vrf_id eq 676768 and *location eq Lab)</t>
@@ -120,7 +120,7 @@
     <t>tmitsue:Lab:Shared Service</t>
   </si>
   <si>
-    <t>['172.16.0.45', '172.16.10.73', '172.16.17.153', '172.16.254.102', '172.16.17.121', '172.16.50.58', '172.16.50.162', '172.16.0.48', '172.16.17.1', '172.16.254.14', '172.16.254.110', '172.16.254.131', '172.16.10.200', '172.16.17.111', '172.16.254.124', '172.16.10.103', '172.16.55.52', '172.16.0.49', '172.16.254.15', '172.16.10.77', '172.16.10.141', '172.16.17.52', '172.16.254.129', '172.16.2.1', '172.16.10.201', '172.16.17.112', '172.16.254.125', '172.16.255.254', '172.16.50.103', '172.16.0.54', '172.16.10.192', '172.16.17.103', '172.16.254.20', '172.16.254.116', '172.16.10.142', '172.16.17.53', '172.16.254.130', '172.16.10.203', '172.16.17.18', '172.16.50.51', '172.16.254.127', '172.16.0.30', '172.16.10.104', '172.16.17.14', '172.16.17.110', '172.16.199.100', '172.16.254.123', '172.16.10.6', '172.16.10.102', '172.16.17.141', '172.16.50.110', '172.16.55.51', '172.16.2.20', '172.16.199.121', '172.16.17.151', '172.16.254.4', '172.16.0.46', '172.16.10.76', '172.16.10.140', '172.16.17.51', '172.16.254.128', '172.16.2.12', '172.16.50.60', '172.16.0.32', '172.16.10.10', '172.16.10.106', '172.16.50.114', '172.16.50.154', '172.16.254.134', '172.16.50.53', '172.16.50.104', '172.16.0.50', '172.16.254.16', '172.16.254.137', '172.16.0.70', '172.16.0.31', '172.16.10.105', '172.16.50.113', '172.16.10.132', '172.16.50.152', '172.16.254.132', '172.16.2.11', '172.16.50.59', '172.16.0.36', '172.16.10.14', '172.16.254.2', '172.16.10.71', '172.16.10.231', '172.16.2.2', '172.16.10.202', '172.16.17.17', '172.16.254.126', '172.16.255.255', '172.16.77.1', '172.16.0.55', '172.16.10.193', '172.16.17.104', '172.16.254.117', '10.0.0.2', '172.16.50.102', '172.16.0.53', '172.16.10.191', '172.16.17.102', '172.16.254.19', '172.16.254.115', '10.0.0.1', '172.16.10.93', '172.16.50.165', '172.16.2.14', '172.16.50.62', '172.16.0.37', '172.16.10.111', '172.16.17.150', '172.16.254.3', '172.16.0.60', '172.16.17.109', '172.16.254.122', '172.16.10.92', '172.16.50.164', '172.16.254.206', '172.16.0.35', '172.16.10.13', '172.16.254.1', '172.16.0.51', '172.16.254.17', '172.16.50.55', '172.16.10.5', '172.16.10.101', '172.16.50.109', '172.16.10.75', '172.16.10.115', '172.16.254.103', '172.16.10.12', '172.16.10.108', '172.16.17.147', '172.16.0.47', '172.16.254.13', '172.16.254.109', '172.16.254.136', '172.16.0.43', '172.16.254.105', '172.16.10.131', '172.16.50.155', '172.16.254.135', '172.16.50.54', '172.16.10.1', '172.16.17.232', '172.16.50.105', '172.16.17.101', '172.16.254.18', '172.16.10.72', '172.16.2.13', '172.16.17.28', '172.16.10.3', '172.16.10.99', '172.16.2.201', '172.16.50.153', '172.16.254.133', '172.16.10.4', '172.16.10.100', '172.16.50.108', '172.16.0.56', '172.16.17.105', '172.16.254.118', '172.16.10.2', '172.16.17.233', '172.16.0.58', '172.16.17.11', '172.16.17.107', '172.16.254.138', '172.16.0.57', '172.16.17.106', '172.16.254.119', '172.16.0.59', '172.16.17.108', '172.16.10.219', '172.16.0.33', '172.16.10.11', '172.16.10.107', '172.16.16.17', '172.16.50.115', '172.16.0.44', '172.16.10.118', '172.16.254.106', '172.16.254.104', '172.16.50.52', '172.16.10.91', '172.16.50.163', '172.16.17.152', '172.16.254.5', '172.16.254.101']</t>
+    <t>['172.16.0.56', '172.16.17.105', '172.16.254.118', '172.16.10.73', '172.16.10.76', '172.16.10.140', '172.16.17.51', '172.16.254.128', '172.16.10.5', '172.16.10.101', '172.16.50.109', '172.16.0.53', '172.16.10.191', '172.16.17.102', '172.16.254.19', '172.16.254.115', '172.16.254.131', '172.16.50.55', '172.16.50.103', '172.16.0.49', '172.16.254.15', '172.16.254.138', '172.16.50.52', '172.16.50.162', '172.16.17.14', '172.16.17.110', '172.16.199.100', '172.16.254.123', '172.16.17.153', '172.16.254.102', '172.16.0.43', '172.16.254.105', '172.16.0.50', '172.16.254.16', '172.16.10.75', '172.16.50.53', '10.0.0.2', '172.16.50.102', '172.16.0.45', '172.16.254.107', '172.16.2.11', '172.16.50.59', '172.16.0.33', '172.16.10.11', '172.16.10.107', '172.16.16.17', '172.16.50.115', '172.16.0.59', '172.16.17.108', '172.16.10.91', '172.16.50.163', '172.16.254.104', '172.16.10.131', '172.16.50.152', '172.16.254.132', '172.16.2.12', '172.16.50.60', '172.16.10.132', '172.16.50.54', '172.16.10.115', '172.16.254.103', '172.16.50.104', '172.16.10.203', '172.16.17.18', '172.16.50.51', '172.16.254.127', '172.16.254.136', '172.16.0.48', '172.16.17.1', '172.16.254.14', '172.16.254.110', '172.16.10.142', '172.16.17.53', '172.16.254.130', '172.16.2.2', '172.16.10.202', '172.16.17.17', '172.16.254.126', '172.16.255.255', '172.16.10.92', '172.16.50.164', '172.16.77.1', '172.16.10.4', '172.16.10.100', '172.16.50.108', '172.16.0.60', '172.16.17.109', '172.16.254.122', '10.0.0.1', '172.16.10.93', '172.16.50.165', '172.16.2.13', '172.16.17.28', '172.16.10.3', '172.16.10.99', '172.16.10.71', '172.16.10.231', '172.16.2.1', '172.16.10.201', '172.16.17.112', '172.16.254.125', '172.16.255.254', '172.16.0.32', '172.16.10.10', '172.16.10.106', '172.16.50.114', '172.16.0.35', '172.16.10.13', '172.16.254.1', '172.16.0.46', '172.16.254.108', '172.16.10.77', '172.16.10.141', '172.16.17.52', '172.16.254.129', '172.16.10.219', '172.16.0.36', '172.16.10.14', '172.16.254.2', '172.16.0.51', '172.16.254.17', '172.16.17.152', '172.16.254.5', '172.16.254.101', '172.16.254.206', '172.16.0.30', '172.16.10.104', '172.16.0.57', '172.16.17.106', '172.16.254.119', '172.16.0.37', '172.16.10.111', '172.16.17.150', '172.16.254.3', '172.16.0.55', '172.16.10.193', '172.16.17.104', '172.16.254.117', '172.16.50.155', '172.16.254.135', '172.16.0.70', '172.16.10.1', '172.16.17.232', '172.16.50.105', '172.16.0.58', '172.16.17.11', '172.16.17.107', '172.16.254.137', '172.16.2.201', '172.16.50.153', '172.16.254.133', '172.16.17.121', '172.16.50.58', '172.16.10.2', '172.16.17.233', '172.16.17.101', '172.16.254.18', '172.16.10.12', '172.16.10.108', '172.16.17.147', '172.16.0.47', '172.16.254.13', '172.16.254.109', '172.16.50.154', '172.16.254.134', '172.16.2.14', '172.16.50.62', '172.16.17.151', '172.16.254.4', '172.16.0.54', '172.16.10.192', '172.16.17.103', '172.16.254.20', '172.16.254.116', '172.16.10.103', '172.16.55.52', '172.16.10.6', '172.16.10.102', '172.16.17.141', '172.16.50.110', '172.16.55.51', '172.16.0.44', '172.16.10.118', '172.16.254.106', '172.16.10.72', '172.16.10.200', '172.16.17.111', '172.16.254.124', '172.16.0.31', '172.16.10.105', '172.16.50.113', '172.16.2.20', '172.16.199.121']</t>
   </si>
   <si>
     <t>(vrf_id eq 676768 and *location eq Lab and (*App eq Shared or ip eq 10.0.0.1 or ip eq 10.0.0.2))</t>
@@ -129,7 +129,7 @@
     <t>tmitsue:Tetration</t>
   </si>
   <si>
-    <t>['172.17.1.13', '172.17.1.8', '172.17.1.254', '172.17.1.6', '172.17.1.5', '172.17.1.9', '172.17.1.11', '172.17.1.12', '172.17.1.10']</t>
+    <t>['172.17.1.8', '172.17.1.11', '172.17.1.13', '172.17.1.10', '172.17.1.9', '172.17.1.254', '172.17.1.5', '172.17.1.6', '172.17.1.12']</t>
   </si>
   <si>
     <t>(vrf_id eq 676768 and ip subnet 172.17.1.0/24)</t>
